--- a/input/mdata/2017-04-21.xlsx
+++ b/input/mdata/2017-04-21.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="247">
   <si>
     <t>P_core1</t>
   </si>
@@ -167,6 +167,9 @@
   </si>
   <si>
     <t>N_gx</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
   <si>
     <t>2001-01-31</t>
@@ -1116,6 +1119,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:52">
+      <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1272,7 +1278,7 @@
     </row>
     <row r="2" spans="1:52">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B2">
         <v>69.28700000000001</v>
@@ -1373,7 +1379,7 @@
     </row>
     <row r="3" spans="1:52">
       <c r="A3" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B3">
         <v>69.422</v>
@@ -1474,7 +1480,7 @@
     </row>
     <row r="4" spans="1:52">
       <c r="A4" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B4">
         <v>69.898</v>
@@ -1590,7 +1596,7 @@
     </row>
     <row r="5" spans="1:52">
       <c r="A5" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B5">
         <v>70.101</v>
@@ -1691,7 +1697,7 @@
     </row>
     <row r="6" spans="1:52">
       <c r="A6" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B6">
         <v>70.304</v>
@@ -1792,7 +1798,7 @@
     </row>
     <row r="7" spans="1:52">
       <c r="A7" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B7">
         <v>70.373</v>
@@ -1908,7 +1914,7 @@
     </row>
     <row r="8" spans="1:52">
       <c r="A8" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B8">
         <v>70.373</v>
@@ -2009,7 +2015,7 @@
     </row>
     <row r="9" spans="1:52">
       <c r="A9" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B9">
         <v>70.57599999999999</v>
@@ -2110,7 +2116,7 @@
     </row>
     <row r="10" spans="1:52">
       <c r="A10" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B10">
         <v>70.712</v>
@@ -2226,7 +2232,7 @@
     </row>
     <row r="11" spans="1:52">
       <c r="A11" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B11">
         <v>70.779</v>
@@ -2327,7 +2333,7 @@
     </row>
     <row r="12" spans="1:52">
       <c r="A12" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B12">
         <v>70.84699999999999</v>
@@ -2428,7 +2434,7 @@
     </row>
     <row r="13" spans="1:52">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B13">
         <v>71.119</v>
@@ -2544,7 +2550,7 @@
     </row>
     <row r="14" spans="1:52">
       <c r="A14" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B14">
         <v>71.32299999999999</v>
@@ -2654,7 +2660,7 @@
     </row>
     <row r="15" spans="1:52">
       <c r="A15" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B15">
         <v>71.526</v>
@@ -2764,7 +2770,7 @@
     </row>
     <row r="16" spans="1:52">
       <c r="A16" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B16">
         <v>72.001</v>
@@ -2889,7 +2895,7 @@
     </row>
     <row r="17" spans="1:52">
       <c r="A17" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B17">
         <v>72.205</v>
@@ -2999,7 +3005,7 @@
     </row>
     <row r="18" spans="1:52">
       <c r="A18" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B18">
         <v>72.408</v>
@@ -3109,7 +3115,7 @@
     </row>
     <row r="19" spans="1:52">
       <c r="A19" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B19">
         <v>72.408</v>
@@ -3234,7 +3240,7 @@
     </row>
     <row r="20" spans="1:52">
       <c r="A20" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B20">
         <v>72.47499999999999</v>
@@ -3344,7 +3350,7 @@
     </row>
     <row r="21" spans="1:52">
       <c r="A21" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B21">
         <v>72.544</v>
@@ -3454,7 +3460,7 @@
     </row>
     <row r="22" spans="1:52">
       <c r="A22" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B22">
         <v>72.748</v>
@@ -3579,7 +3585,7 @@
     </row>
     <row r="23" spans="1:52">
       <c r="A23" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B23">
         <v>72.883</v>
@@ -3689,7 +3695,7 @@
     </row>
     <row r="24" spans="1:52">
       <c r="A24" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B24">
         <v>73.01900000000001</v>
@@ -3799,7 +3805,7 @@
     </row>
     <row r="25" spans="1:52">
       <c r="A25" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B25">
         <v>73.29000000000001</v>
@@ -3924,7 +3930,7 @@
     </row>
     <row r="26" spans="1:52">
       <c r="A26" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B26">
         <v>73.562</v>
@@ -4061,7 +4067,7 @@
     </row>
     <row r="27" spans="1:52">
       <c r="A27" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B27">
         <v>73.697</v>
@@ -4198,7 +4204,7 @@
     </row>
     <row r="28" spans="1:52">
       <c r="A28" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B28">
         <v>74.444</v>
@@ -4350,7 +4356,7 @@
     </row>
     <row r="29" spans="1:52">
       <c r="A29" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B29">
         <v>74.512</v>
@@ -4487,7 +4493,7 @@
     </row>
     <row r="30" spans="1:52">
       <c r="A30" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B30">
         <v>74.648</v>
@@ -4624,7 +4630,7 @@
     </row>
     <row r="31" spans="1:52">
       <c r="A31" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B31">
         <v>74.783</v>
@@ -4776,7 +4782,7 @@
     </row>
     <row r="32" spans="1:52">
       <c r="A32" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B32">
         <v>74.715</v>
@@ -4913,7 +4919,7 @@
     </row>
     <row r="33" spans="1:52">
       <c r="A33" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B33">
         <v>74.851</v>
@@ -5050,7 +5056,7 @@
     </row>
     <row r="34" spans="1:52">
       <c r="A34" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B34">
         <v>74.988</v>
@@ -5202,7 +5208,7 @@
     </row>
     <row r="35" spans="1:52">
       <c r="A35" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B35">
         <v>74.919</v>
@@ -5339,7 +5345,7 @@
     </row>
     <row r="36" spans="1:52">
       <c r="A36" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B36">
         <v>74.988</v>
@@ -5476,7 +5482,7 @@
     </row>
     <row r="37" spans="1:52">
       <c r="A37" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B37">
         <v>75.32599999999999</v>
@@ -5628,7 +5634,7 @@
     </row>
     <row r="38" spans="1:52">
       <c r="A38" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B38">
         <v>75.598</v>
@@ -5765,7 +5771,7 @@
     </row>
     <row r="39" spans="1:52">
       <c r="A39" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B39">
         <v>75.66500000000001</v>
@@ -5902,7 +5908,7 @@
     </row>
     <row r="40" spans="1:52">
       <c r="A40" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B40">
         <v>76.48</v>
@@ -6054,7 +6060,7 @@
     </row>
     <row r="41" spans="1:52">
       <c r="A41" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B41">
         <v>76.548</v>
@@ -6191,7 +6197,7 @@
     </row>
     <row r="42" spans="1:52">
       <c r="A42" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B42">
         <v>76.684</v>
@@ -6328,7 +6334,7 @@
     </row>
     <row r="43" spans="1:52">
       <c r="A43" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B43">
         <v>76.81999999999999</v>
@@ -6480,7 +6486,7 @@
     </row>
     <row r="44" spans="1:52">
       <c r="A44" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B44">
         <v>77.023</v>
@@ -6617,7 +6623,7 @@
     </row>
     <row r="45" spans="1:52">
       <c r="A45" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B45">
         <v>77.226</v>
@@ -6754,7 +6760,7 @@
     </row>
     <row r="46" spans="1:52">
       <c r="A46" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B46">
         <v>77.36199999999999</v>
@@ -6906,7 +6912,7 @@
     </row>
     <row r="47" spans="1:52">
       <c r="A47" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B47">
         <v>77.431</v>
@@ -7043,7 +7049,7 @@
     </row>
     <row r="48" spans="1:52">
       <c r="A48" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B48">
         <v>77.295</v>
@@ -7180,7 +7186,7 @@
     </row>
     <row r="49" spans="1:52">
       <c r="A49" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B49">
         <v>77.498</v>
@@ -7332,7 +7338,7 @@
     </row>
     <row r="50" spans="1:52">
       <c r="A50" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B50">
         <v>78.056</v>
@@ -7469,7 +7475,7 @@
     </row>
     <row r="51" spans="1:52">
       <c r="A51" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B51">
         <v>78.21299999999999</v>
@@ -7606,7 +7612,7 @@
     </row>
     <row r="52" spans="1:52">
       <c r="A52" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B52">
         <v>78.607</v>
@@ -7758,7 +7764,7 @@
     </row>
     <row r="53" spans="1:52">
       <c r="A53" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B53">
         <v>78.607</v>
@@ -7895,7 +7901,7 @@
     </row>
     <row r="54" spans="1:52">
       <c r="A54" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B54">
         <v>78.685</v>
@@ -8032,7 +8038,7 @@
     </row>
     <row r="55" spans="1:52">
       <c r="A55" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B55">
         <v>78.607</v>
@@ -8184,7 +8190,7 @@
     </row>
     <row r="56" spans="1:52">
       <c r="A56" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B56">
         <v>78.607</v>
@@ -8321,7 +8327,7 @@
     </row>
     <row r="57" spans="1:52">
       <c r="A57" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B57">
         <v>78.685</v>
@@ -8458,7 +8464,7 @@
     </row>
     <row r="58" spans="1:52">
       <c r="A58" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B58">
         <v>78.76300000000001</v>
@@ -8610,7 +8616,7 @@
     </row>
     <row r="59" spans="1:52">
       <c r="A59" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B59">
         <v>78.76300000000001</v>
@@ -8747,7 +8753,7 @@
     </row>
     <row r="60" spans="1:52">
       <c r="A60" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B60">
         <v>78.76300000000001</v>
@@ -8884,7 +8890,7 @@
     </row>
     <row r="61" spans="1:52">
       <c r="A61" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B61">
         <v>78.92100000000001</v>
@@ -9036,7 +9042,7 @@
     </row>
     <row r="62" spans="1:52">
       <c r="A62" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B62">
         <v>79.078</v>
@@ -9173,7 +9179,7 @@
     </row>
     <row r="63" spans="1:52">
       <c r="A63" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B63">
         <v>79.235</v>
@@ -9310,7 +9316,7 @@
     </row>
     <row r="64" spans="1:52">
       <c r="A64" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B64">
         <v>79.70699999999999</v>
@@ -9462,7 +9468,7 @@
     </row>
     <row r="65" spans="1:52">
       <c r="A65" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B65">
         <v>79.785</v>
@@ -9599,7 +9605,7 @@
     </row>
     <row r="66" spans="1:52">
       <c r="A66" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B66">
         <v>80.09999999999999</v>
@@ -9736,7 +9742,7 @@
     </row>
     <row r="67" spans="1:52">
       <c r="A67" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B67">
         <v>80.09999999999999</v>
@@ -9888,7 +9894,7 @@
     </row>
     <row r="68" spans="1:52">
       <c r="A68" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B68">
         <v>80.25700000000001</v>
@@ -10025,7 +10031,7 @@
     </row>
     <row r="69" spans="1:52">
       <c r="A69" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B69">
         <v>80.336</v>
@@ -10162,7 +10168,7 @@
     </row>
     <row r="70" spans="1:52">
       <c r="A70" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B70">
         <v>80.336</v>
@@ -10314,7 +10320,7 @@
     </row>
     <row r="71" spans="1:52">
       <c r="A71" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B71">
         <v>80.336</v>
@@ -10451,7 +10457,7 @@
     </row>
     <row r="72" spans="1:52">
       <c r="A72" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B72">
         <v>80.414</v>
@@ -10588,7 +10594,7 @@
     </row>
     <row r="73" spans="1:52">
       <c r="A73" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B73">
         <v>80.572</v>
@@ -10740,7 +10746,7 @@
     </row>
     <row r="74" spans="1:52">
       <c r="A74" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B74">
         <v>80.72799999999999</v>
@@ -10877,7 +10883,7 @@
     </row>
     <row r="75" spans="1:52">
       <c r="A75" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B75">
         <v>81.04300000000001</v>
@@ -11014,7 +11020,7 @@
     </row>
     <row r="76" spans="1:52">
       <c r="A76" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B76">
         <v>81.593</v>
@@ -11166,7 +11172,7 @@
     </row>
     <row r="77" spans="1:52">
       <c r="A77" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B77">
         <v>81.83</v>
@@ -11303,7 +11309,7 @@
     </row>
     <row r="78" spans="1:52">
       <c r="A78" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B78">
         <v>81.83</v>
@@ -11440,7 +11446,7 @@
     </row>
     <row r="79" spans="1:52">
       <c r="A79" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B79">
         <v>81.908</v>
@@ -11592,7 +11598,7 @@
     </row>
     <row r="80" spans="1:52">
       <c r="A80" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B80">
         <v>82.065</v>
@@ -11729,7 +11735,7 @@
     </row>
     <row r="81" spans="1:52">
       <c r="A81" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B81">
         <v>82.14400000000001</v>
@@ -11866,7 +11872,7 @@
     </row>
     <row r="82" spans="1:52">
       <c r="A82" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B82">
         <v>82.22199999999999</v>
@@ -12018,7 +12024,7 @@
     </row>
     <row r="83" spans="1:52">
       <c r="A83" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B83">
         <v>82.301</v>
@@ -12155,7 +12161,7 @@
     </row>
     <row r="84" spans="1:52">
       <c r="A84" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B84">
         <v>82.379</v>
@@ -12292,7 +12298,7 @@
     </row>
     <row r="85" spans="1:52">
       <c r="A85" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B85">
         <v>82.53700000000001</v>
@@ -12444,7 +12450,7 @@
     </row>
     <row r="86" spans="1:52">
       <c r="A86" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B86">
         <v>83.008</v>
@@ -12581,7 +12587,7 @@
     </row>
     <row r="87" spans="1:52">
       <c r="A87" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B87">
         <v>83.322</v>
@@ -12718,7 +12724,7 @@
     </row>
     <row r="88" spans="1:52">
       <c r="A88" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B88">
         <v>84.26600000000001</v>
@@ -12870,7 +12876,7 @@
     </row>
     <row r="89" spans="1:52">
       <c r="A89" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B89">
         <v>84.65900000000001</v>
@@ -13007,7 +13013,7 @@
     </row>
     <row r="90" spans="1:52">
       <c r="A90" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B90">
         <v>85.05200000000001</v>
@@ -13144,7 +13150,7 @@
     </row>
     <row r="91" spans="1:52">
       <c r="A91" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B91">
         <v>85.44499999999999</v>
@@ -13296,7 +13302,7 @@
     </row>
     <row r="92" spans="1:52">
       <c r="A92" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B92">
         <v>85.83799999999999</v>
@@ -13439,7 +13445,7 @@
     </row>
     <row r="93" spans="1:52">
       <c r="A93" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B93">
         <v>85.996</v>
@@ -13582,7 +13588,7 @@
     </row>
     <row r="94" spans="1:52">
       <c r="A94" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B94">
         <v>86.38800000000001</v>
@@ -13740,7 +13746,7 @@
     </row>
     <row r="95" spans="1:52">
       <c r="A95" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B95">
         <v>86.545</v>
@@ -13883,7 +13889,7 @@
     </row>
     <row r="96" spans="1:52">
       <c r="A96" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B96">
         <v>86.78100000000001</v>
@@ -14026,7 +14032,7 @@
     </row>
     <row r="97" spans="1:52">
       <c r="A97" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B97">
         <v>87.17400000000001</v>
@@ -14184,7 +14190,7 @@
     </row>
     <row r="98" spans="1:52">
       <c r="A98" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B98">
         <v>87.33199999999999</v>
@@ -14327,7 +14333,7 @@
     </row>
     <row r="99" spans="1:52">
       <c r="A99" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B99">
         <v>87.646</v>
@@ -14470,7 +14476,7 @@
     </row>
     <row r="100" spans="1:52">
       <c r="A100" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B100">
         <v>88.039</v>
@@ -14628,7 +14634,7 @@
     </row>
     <row r="101" spans="1:52">
       <c r="A101" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B101">
         <v>88.196</v>
@@ -14771,7 +14777,7 @@
     </row>
     <row r="102" spans="1:52">
       <c r="A102" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B102">
         <v>88.354</v>
@@ -14914,7 +14920,7 @@
     </row>
     <row r="103" spans="1:52">
       <c r="A103" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B103">
         <v>88.432</v>
@@ -15072,7 +15078,7 @@
     </row>
     <row r="104" spans="1:52">
       <c r="A104" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B104">
         <v>88.59</v>
@@ -15215,7 +15221,7 @@
     </row>
     <row r="105" spans="1:52">
       <c r="A105" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B105">
         <v>88.66800000000001</v>
@@ -15358,7 +15364,7 @@
     </row>
     <row r="106" spans="1:52">
       <c r="A106" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B106">
         <v>88.746</v>
@@ -15516,7 +15522,7 @@
     </row>
     <row r="107" spans="1:52">
       <c r="A107" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B107">
         <v>88.825</v>
@@ -15659,7 +15665,7 @@
     </row>
     <row r="108" spans="1:52">
       <c r="A108" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B108">
         <v>88.982</v>
@@ -15802,7 +15808,7 @@
     </row>
     <row r="109" spans="1:52">
       <c r="A109" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B109">
         <v>89.06100000000001</v>
@@ -15960,7 +15966,7 @@
     </row>
     <row r="110" spans="1:52">
       <c r="A110" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B110">
         <v>89.348</v>
@@ -16103,7 +16109,7 @@
     </row>
     <row r="111" spans="1:52">
       <c r="A111" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B111">
         <v>89.52800000000001</v>
@@ -16246,7 +16252,7 @@
     </row>
     <row r="112" spans="1:52">
       <c r="A112" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B112">
         <v>89.438</v>
@@ -16404,7 +16410,7 @@
     </row>
     <row r="113" spans="1:52">
       <c r="A113" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B113">
         <v>89.61799999999999</v>
@@ -16547,7 +16553,7 @@
     </row>
     <row r="114" spans="1:52">
       <c r="A114" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B114">
         <v>89.798</v>
@@ -16690,7 +16696,7 @@
     </row>
     <row r="115" spans="1:52">
       <c r="A115" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B115">
         <v>89.88800000000001</v>
@@ -16848,7 +16854,7 @@
     </row>
     <row r="116" spans="1:52">
       <c r="A116" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B116">
         <v>90.068</v>
@@ -16991,7 +16997,7 @@
     </row>
     <row r="117" spans="1:52">
       <c r="A117" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B117">
         <v>90.248</v>
@@ -17134,7 +17140,7 @@
     </row>
     <row r="118" spans="1:52">
       <c r="A118" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B118">
         <v>90.33799999999999</v>
@@ -17292,7 +17298,7 @@
     </row>
     <row r="119" spans="1:52">
       <c r="A119" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B119">
         <v>90.33799999999999</v>
@@ -17435,7 +17441,7 @@
     </row>
     <row r="120" spans="1:52">
       <c r="A120" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B120">
         <v>90.33799999999999</v>
@@ -17578,7 +17584,7 @@
     </row>
     <row r="121" spans="1:52">
       <c r="A121" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B121">
         <v>90.608</v>
@@ -17736,7 +17742,7 @@
     </row>
     <row r="122" spans="1:52">
       <c r="A122" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B122">
         <v>91.238</v>
@@ -17879,7 +17885,7 @@
     </row>
     <row r="123" spans="1:52">
       <c r="A123" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B123">
         <v>91.867</v>
@@ -18022,7 +18028,7 @@
     </row>
     <row r="124" spans="1:52">
       <c r="A124" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B124">
         <v>92.137</v>
@@ -18180,7 +18186,7 @@
     </row>
     <row r="125" spans="1:52">
       <c r="A125" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B125">
         <v>92.31699999999999</v>
@@ -18323,7 +18329,7 @@
     </row>
     <row r="126" spans="1:52">
       <c r="A126" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B126">
         <v>92.67700000000001</v>
@@ -18466,7 +18472,7 @@
     </row>
     <row r="127" spans="1:52">
       <c r="A127" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B127">
         <v>93.03700000000001</v>
@@ -18624,7 +18630,7 @@
     </row>
     <row r="128" spans="1:52">
       <c r="A128" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B128">
         <v>93.307</v>
@@ -18767,7 +18773,7 @@
     </row>
     <row r="129" spans="1:52">
       <c r="A129" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B129">
         <v>93.39700000000001</v>
@@ -18910,7 +18916,7 @@
     </row>
     <row r="130" spans="1:52">
       <c r="A130" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B130">
         <v>93.307</v>
@@ -19068,7 +19074,7 @@
     </row>
     <row r="131" spans="1:52">
       <c r="A131" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B131">
         <v>93.217</v>
@@ -19211,7 +19217,7 @@
     </row>
     <row r="132" spans="1:52">
       <c r="A132" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B132">
         <v>93.48699999999999</v>
@@ -19354,7 +19360,7 @@
     </row>
     <row r="133" spans="1:52">
       <c r="A133" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B133">
         <v>93.84699999999999</v>
@@ -19512,7 +19518,7 @@
     </row>
     <row r="134" spans="1:52">
       <c r="A134" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B134">
         <v>94.036</v>
@@ -19655,7 +19661,7 @@
     </row>
     <row r="135" spans="1:52">
       <c r="A135" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B135">
         <v>94.15300000000001</v>
@@ -19798,7 +19804,7 @@
     </row>
     <row r="136" spans="1:52">
       <c r="A136" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B136">
         <v>93.919</v>
@@ -19956,7 +19962,7 @@
     </row>
     <row r="137" spans="1:52">
       <c r="A137" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B137">
         <v>93.928</v>
@@ -20099,7 +20105,7 @@
     </row>
     <row r="138" spans="1:52">
       <c r="A138" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B138">
         <v>94.15300000000001</v>
@@ -20242,7 +20248,7 @@
     </row>
     <row r="139" spans="1:52">
       <c r="A139" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B139">
         <v>94.405</v>
@@ -20400,7 +20406,7 @@
     </row>
     <row r="140" spans="1:52">
       <c r="A140" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B140">
         <v>94.396</v>
@@ -20543,7 +20549,7 @@
     </row>
     <row r="141" spans="1:52">
       <c r="A141" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B141">
         <v>94.54900000000001</v>
@@ -20686,7 +20692,7 @@
     </row>
     <row r="142" spans="1:52">
       <c r="A142" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B142">
         <v>94.702</v>
@@ -20844,7 +20850,7 @@
     </row>
     <row r="143" spans="1:52">
       <c r="A143" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B143">
         <v>94.675</v>
@@ -20987,7 +20993,7 @@
     </row>
     <row r="144" spans="1:52">
       <c r="A144" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B144">
         <v>94.747</v>
@@ -21130,7 +21136,7 @@
     </row>
     <row r="145" spans="1:52">
       <c r="A145" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B145">
         <v>94.90000000000001</v>
@@ -21288,7 +21294,7 @@
     </row>
     <row r="146" spans="1:52">
       <c r="A146" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B146">
         <v>95.27800000000001</v>
@@ -21431,7 +21437,7 @@
     </row>
     <row r="147" spans="1:52">
       <c r="A147" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B147">
         <v>95.512</v>
@@ -21574,7 +21580,7 @@
     </row>
     <row r="148" spans="1:52">
       <c r="A148" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B148">
         <v>95.395</v>
@@ -21732,7 +21738,7 @@
     </row>
     <row r="149" spans="1:52">
       <c r="A149" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B149">
         <v>95.395</v>
@@ -21875,7 +21881,7 @@
     </row>
     <row r="150" spans="1:52">
       <c r="A150" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B150">
         <v>95.755</v>
@@ -22018,7 +22024,7 @@
     </row>
     <row r="151" spans="1:52">
       <c r="A151" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B151">
         <v>95.89</v>
@@ -22176,7 +22182,7 @@
     </row>
     <row r="152" spans="1:52">
       <c r="A152" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B152">
         <v>96.006</v>
@@ -22319,7 +22325,7 @@
     </row>
     <row r="153" spans="1:52">
       <c r="A153" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B153">
         <v>95.961</v>
@@ -22462,7 +22468,7 @@
     </row>
     <row r="154" spans="1:52">
       <c r="A154" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B154">
         <v>96.303</v>
@@ -22620,7 +22626,7 @@
     </row>
     <row r="155" spans="1:52">
       <c r="A155" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B155">
         <v>96.393</v>
@@ -22763,7 +22769,7 @@
     </row>
     <row r="156" spans="1:52">
       <c r="A156" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B156">
         <v>96.60899999999999</v>
@@ -22906,7 +22912,7 @@
     </row>
     <row r="157" spans="1:52">
       <c r="A157" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B157">
         <v>96.726</v>
@@ -23064,7 +23070,7 @@
     </row>
     <row r="158" spans="1:52">
       <c r="A158" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B158">
         <v>96.94199999999999</v>
@@ -23207,7 +23213,7 @@
     </row>
     <row r="159" spans="1:52">
       <c r="A159" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B159">
         <v>97.158</v>
@@ -23350,7 +23356,7 @@
     </row>
     <row r="160" spans="1:52">
       <c r="A160" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B160">
         <v>97.437</v>
@@ -23508,7 +23514,7 @@
     </row>
     <row r="161" spans="1:52">
       <c r="A161" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B161">
         <v>97.617</v>
@@ -23651,7 +23657,7 @@
     </row>
     <row r="162" spans="1:52">
       <c r="A162" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B162">
         <v>97.869</v>
@@ -23794,7 +23800,7 @@
     </row>
     <row r="163" spans="1:52">
       <c r="A163" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B163">
         <v>97.95</v>
@@ -23952,7 +23958,7 @@
     </row>
     <row r="164" spans="1:52">
       <c r="A164" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B164">
         <v>98.148</v>
@@ -24095,7 +24101,7 @@
     </row>
     <row r="165" spans="1:52">
       <c r="A165" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B165">
         <v>98.22</v>
@@ -24238,7 +24244,7 @@
     </row>
     <row r="166" spans="1:52">
       <c r="A166" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B166">
         <v>98.166</v>
@@ -24396,7 +24402,7 @@
     </row>
     <row r="167" spans="1:52">
       <c r="A167" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B167">
         <v>98.157</v>
@@ -24539,7 +24545,7 @@
     </row>
     <row r="168" spans="1:52">
       <c r="A168" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B168">
         <v>98.202</v>
@@ -24682,7 +24688,7 @@
     </row>
     <row r="169" spans="1:52">
       <c r="A169" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B169">
         <v>98.319</v>
@@ -24840,7 +24846,7 @@
     </row>
     <row r="170" spans="1:52">
       <c r="A170" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B170">
         <v>99.42</v>
@@ -24983,7 +24989,7 @@
     </row>
     <row r="171" spans="1:52">
       <c r="A171" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B171">
         <v>99.48999999999999</v>
@@ -25126,7 +25132,7 @@
     </row>
     <row r="172" spans="1:52">
       <c r="A172" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B172">
         <v>99.59999999999999</v>
@@ -25284,7 +25290,7 @@
     </row>
     <row r="173" spans="1:52">
       <c r="A173" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B173">
         <v>99.63</v>
@@ -25427,7 +25433,7 @@
     </row>
     <row r="174" spans="1:52">
       <c r="A174" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B174">
         <v>99.91</v>
@@ -25570,7 +25576,7 @@
     </row>
     <row r="175" spans="1:52">
       <c r="A175" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B175">
         <v>99.93000000000001</v>
@@ -25728,7 +25734,7 @@
     </row>
     <row r="176" spans="1:52">
       <c r="A176" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B176">
         <v>100.17</v>
@@ -25871,7 +25877,7 @@
     </row>
     <row r="177" spans="1:52">
       <c r="A177" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B177">
         <v>100.33</v>
@@ -26014,7 +26020,7 @@
     </row>
     <row r="178" spans="1:52">
       <c r="A178" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B178">
         <v>100.15</v>
@@ -26172,7 +26178,7 @@
     </row>
     <row r="179" spans="1:52">
       <c r="A179" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B179">
         <v>100.36</v>
@@ -26315,7 +26321,7 @@
     </row>
     <row r="180" spans="1:52">
       <c r="A180" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B180">
         <v>100.4</v>
@@ -26458,7 +26464,7 @@
     </row>
     <row r="181" spans="1:52">
       <c r="A181" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B181">
         <v>100.61</v>
@@ -26616,7 +26622,7 @@
     </row>
     <row r="182" spans="1:52">
       <c r="A182" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B182">
         <v>100.97</v>
@@ -26759,7 +26765,7 @@
     </row>
     <row r="183" spans="1:52">
       <c r="A183" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B183">
         <v>101.22</v>
@@ -26902,7 +26908,7 @@
     </row>
     <row r="184" spans="1:52">
       <c r="A184" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B184">
         <v>101.29</v>
@@ -27060,7 +27066,7 @@
     </row>
     <row r="185" spans="1:52">
       <c r="A185" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B185">
         <v>101.49</v>
@@ -27203,7 +27209,7 @@
     </row>
     <row r="186" spans="1:52">
       <c r="A186" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B186">
         <v>101.67</v>
@@ -27346,7 +27352,7 @@
     </row>
     <row r="187" spans="1:52">
       <c r="A187" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B187">
         <v>101.75</v>
@@ -27504,7 +27510,7 @@
     </row>
     <row r="188" spans="1:52">
       <c r="A188" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B188">
         <v>101.51</v>
@@ -27647,7 +27653,7 @@
     </row>
     <row r="189" spans="1:52">
       <c r="A189" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B189">
         <v>101.64</v>
@@ -27790,7 +27796,7 @@
     </row>
     <row r="190" spans="1:52">
       <c r="A190" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B190">
         <v>101.68</v>
@@ -27948,7 +27954,7 @@
     </row>
     <row r="191" spans="1:52">
       <c r="A191" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B191">
         <v>102.12</v>
@@ -28091,7 +28097,7 @@
     </row>
     <row r="192" spans="1:52">
       <c r="A192" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B192">
         <v>101.98</v>
@@ -28234,7 +28240,7 @@
     </row>
     <row r="193" spans="1:52">
       <c r="A193" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B193">
         <v>101.86</v>
@@ -28392,7 +28398,7 @@
     </row>
     <row r="194" spans="1:52">
       <c r="A194" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B194">
         <v>102.58</v>
@@ -28535,7 +28541,7 @@
     </row>
     <row r="195" spans="1:52">
       <c r="A195" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B195">
         <v>102.79</v>
@@ -28678,7 +28684,7 @@
     </row>
     <row r="196" spans="1:52">
       <c r="A196" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B196">
         <v>102.77</v>

--- a/input/mdata/2017-04-21.xlsx
+++ b/input/mdata/2017-04-21.xlsx
@@ -1302,7 +1302,7 @@
         <v>77.7208</v>
       </c>
       <c r="T2">
-        <v>56.3</v>
+        <v>57.94748073503263</v>
       </c>
       <c r="U2">
         <v>4.4</v>
@@ -1403,7 +1403,7 @@
         <v>78.2276</v>
       </c>
       <c r="T3">
-        <v>56.1</v>
+        <v>57.76319502074691</v>
       </c>
       <c r="U3">
         <v>4.7</v>
@@ -1504,7 +1504,7 @@
         <v>81.04949999999999</v>
       </c>
       <c r="T4">
-        <v>57.4</v>
+        <v>58.12319502074691</v>
       </c>
       <c r="U4">
         <v>4.6</v>
@@ -1620,7 +1620,7 @@
         <v>85.7067</v>
       </c>
       <c r="T5">
-        <v>59.4</v>
+        <v>59.16819502074691</v>
       </c>
       <c r="U5">
         <v>4.1</v>
@@ -1721,7 +1721,7 @@
         <v>86.45869999999999</v>
       </c>
       <c r="T6">
-        <v>60.1</v>
+        <v>59.31319502074691</v>
       </c>
       <c r="U6">
         <v>3.9</v>
@@ -1822,7 +1822,7 @@
         <v>80.9592</v>
       </c>
       <c r="T7">
-        <v>60.1</v>
+        <v>59.22319502074691</v>
       </c>
       <c r="U7">
         <v>3.8</v>
@@ -1938,7 +1938,7 @@
         <v>80.4614</v>
       </c>
       <c r="T8">
-        <v>60.1</v>
+        <v>59.30319502074691</v>
       </c>
       <c r="U8">
         <v>3.8</v>
@@ -2039,7 +2039,7 @@
         <v>89.5264</v>
       </c>
       <c r="T9">
-        <v>59.4</v>
+        <v>59.17319502074691</v>
       </c>
       <c r="U9">
         <v>3.8</v>
@@ -2140,7 +2140,7 @@
         <v>95.1823</v>
       </c>
       <c r="T10">
-        <v>60.1</v>
+        <v>59.59319502074691</v>
       </c>
       <c r="U10">
         <v>3.7</v>
@@ -2256,7 +2256,7 @@
         <v>89.5399</v>
       </c>
       <c r="T11">
-        <v>60.3</v>
+        <v>59.6081950207469</v>
       </c>
       <c r="U11">
         <v>3.6</v>
@@ -2357,7 +2357,7 @@
         <v>89.86490000000001</v>
       </c>
       <c r="T12">
-        <v>60.2</v>
+        <v>59.60319502074692</v>
       </c>
       <c r="U12">
         <v>3.7</v>
@@ -2458,7 +2458,7 @@
         <v>87.1947</v>
       </c>
       <c r="T13">
-        <v>58.9</v>
+        <v>59.49819502074691</v>
       </c>
       <c r="U13">
         <v>3.6</v>
@@ -2574,16 +2574,16 @@
         <v>89.2718</v>
       </c>
       <c r="Q14">
-        <v>42160</v>
+        <v>59328.44890829694</v>
       </c>
       <c r="R14">
-        <v>0.62</v>
+        <v>0.7441304347826087</v>
       </c>
       <c r="S14">
-        <v>12.8</v>
+        <v>19.86521739130436</v>
       </c>
       <c r="T14">
-        <v>58.1</v>
+        <v>59.74748073503263</v>
       </c>
       <c r="U14">
         <v>3.6</v>
@@ -2684,16 +2684,16 @@
         <v>97.79000000000001</v>
       </c>
       <c r="Q15">
-        <v>37161</v>
+        <v>51976.93311882326</v>
       </c>
       <c r="R15">
-        <v>0.74</v>
+        <v>0.7441304347826088</v>
       </c>
       <c r="S15">
-        <v>17.3</v>
+        <v>18.92521739130436</v>
       </c>
       <c r="T15">
-        <v>58.2</v>
+        <v>59.86319502074691</v>
       </c>
       <c r="U15">
         <v>3.5</v>
@@ -2794,16 +2794,16 @@
         <v>87.8753</v>
       </c>
       <c r="Q16">
-        <v>61997</v>
+        <v>69824.51206619167</v>
       </c>
       <c r="R16">
-        <v>0.79</v>
+        <v>0.7774462242562931</v>
       </c>
       <c r="S16">
-        <v>21.3</v>
+        <v>18.607585812357</v>
       </c>
       <c r="T16">
-        <v>59.1</v>
+        <v>59.82319502074691</v>
       </c>
       <c r="U16">
         <v>3.4</v>
@@ -2919,16 +2919,16 @@
         <v>88.27379999999999</v>
       </c>
       <c r="Q17">
-        <v>57904</v>
+        <v>66634.40680303378</v>
       </c>
       <c r="R17">
-        <v>0.96</v>
+        <v>0.9406041189931351</v>
       </c>
       <c r="S17">
-        <v>27.6</v>
+        <v>24.147585812357</v>
       </c>
       <c r="T17">
-        <v>60.5</v>
+        <v>60.26819502074692</v>
       </c>
       <c r="U17">
         <v>3.4</v>
@@ -3029,16 +3029,16 @@
         <v>87.2332</v>
       </c>
       <c r="Q18">
-        <v>56988</v>
+        <v>63304.24890829695</v>
       </c>
       <c r="R18">
-        <v>0.96</v>
+        <v>0.9121830663615562</v>
       </c>
       <c r="S18">
-        <v>27.4</v>
+        <v>24.86969107551489</v>
       </c>
       <c r="T18">
-        <v>60.9</v>
+        <v>60.11319502074691</v>
       </c>
       <c r="U18">
         <v>3.3</v>
@@ -3139,16 +3139,16 @@
         <v>90.4872</v>
       </c>
       <c r="Q19">
-        <v>55337</v>
+        <v>51397.61732934956</v>
       </c>
       <c r="R19">
-        <v>0.72</v>
+        <v>0.6969199084668195</v>
       </c>
       <c r="S19">
-        <v>23.2</v>
+        <v>22.48021739130437</v>
       </c>
       <c r="T19">
-        <v>61</v>
+        <v>60.12319502074691</v>
       </c>
       <c r="U19">
         <v>3.1</v>
@@ -3264,16 +3264,16 @@
         <v>93.2032</v>
       </c>
       <c r="Q20">
-        <v>50400</v>
+        <v>52076.30153987589</v>
       </c>
       <c r="R20">
-        <v>0.64</v>
+        <v>0.6869199084668194</v>
       </c>
       <c r="S20">
-        <v>22</v>
+        <v>22.44337528604121</v>
       </c>
       <c r="T20">
-        <v>61</v>
+        <v>60.20319502074691</v>
       </c>
       <c r="U20">
         <v>3.1</v>
@@ -3374,16 +3374,16 @@
         <v>87.0822</v>
       </c>
       <c r="Q21">
-        <v>40385</v>
+        <v>49052.19627671799</v>
       </c>
       <c r="R21">
-        <v>0.75</v>
+        <v>0.6995514874141878</v>
       </c>
       <c r="S21">
-        <v>21.5</v>
+        <v>21.57863844393594</v>
       </c>
       <c r="T21">
-        <v>60.1</v>
+        <v>59.87319502074691</v>
       </c>
       <c r="U21">
         <v>3.3</v>
@@ -3484,16 +3484,16 @@
         <v>91.0702</v>
       </c>
       <c r="Q22">
-        <v>47804</v>
+        <v>51916.66996092852</v>
       </c>
       <c r="R22">
-        <v>0.72</v>
+        <v>0.7000778032036615</v>
       </c>
       <c r="S22">
-        <v>23.7</v>
+        <v>22.51179633867278</v>
       </c>
       <c r="T22">
-        <v>60.8</v>
+        <v>60.29319502074691</v>
       </c>
       <c r="U22">
         <v>3</v>
@@ -3609,16 +3609,16 @@
         <v>91.3916</v>
       </c>
       <c r="Q23">
-        <v>56907</v>
+        <v>58283.03838198115</v>
       </c>
       <c r="R23">
-        <v>0.8</v>
+        <v>0.7637620137299772</v>
       </c>
       <c r="S23">
-        <v>21.8</v>
+        <v>22.16442791762015</v>
       </c>
       <c r="T23">
-        <v>60.9</v>
+        <v>60.2081950207469</v>
       </c>
       <c r="U23">
         <v>3.1</v>
@@ -3719,16 +3719,16 @@
         <v>95.5981</v>
       </c>
       <c r="Q24">
-        <v>60682</v>
+        <v>61289.66996092853</v>
       </c>
       <c r="R24">
-        <v>0.67</v>
+        <v>0.6563935926773459</v>
       </c>
       <c r="S24">
-        <v>31.5</v>
+        <v>28.70969107551489</v>
       </c>
       <c r="T24">
-        <v>60.5</v>
+        <v>59.90319502074691</v>
       </c>
       <c r="U24">
         <v>3.1</v>
@@ -3829,16 +3829,16 @@
         <v>97.6909</v>
       </c>
       <c r="Q25">
-        <v>98816</v>
+        <v>30553.3541714548</v>
       </c>
       <c r="R25">
-        <v>0.49</v>
+        <v>0.5311304347826088</v>
       </c>
       <c r="S25">
-        <v>17.6</v>
+        <v>20.93916475972542</v>
       </c>
       <c r="T25">
-        <v>59.5</v>
+        <v>60.09819502074691</v>
       </c>
       <c r="U25">
         <v>3.1</v>
@@ -3978,16 +3978,16 @@
         <v>96.59520000000001</v>
       </c>
       <c r="Q26">
-        <v>33717</v>
+        <v>50885.44890829694</v>
       </c>
       <c r="R26">
-        <v>0.51</v>
+        <v>0.6341304347826087</v>
       </c>
       <c r="S26">
-        <v>17.1</v>
+        <v>24.16521739130436</v>
       </c>
       <c r="T26">
-        <v>58.1</v>
+        <v>59.74748073503263</v>
       </c>
       <c r="U26">
         <v>3.3</v>
@@ -4115,16 +4115,16 @@
         <v>100.1014</v>
       </c>
       <c r="Q27">
-        <v>29315</v>
+        <v>44130.93311882326</v>
       </c>
       <c r="R27">
-        <v>0.62</v>
+        <v>0.6241304347826088</v>
       </c>
       <c r="S27">
-        <v>19.6</v>
+        <v>21.22521739130436</v>
       </c>
       <c r="T27">
-        <v>57.9</v>
+        <v>59.56319502074691</v>
       </c>
       <c r="U27">
         <v>3.3</v>
@@ -4252,16 +4252,16 @@
         <v>96.3648</v>
       </c>
       <c r="Q28">
-        <v>46113</v>
+        <v>53940.51206619167</v>
       </c>
       <c r="R28">
-        <v>0.55</v>
+        <v>0.5374462242562931</v>
       </c>
       <c r="S28">
-        <v>22.6</v>
+        <v>19.907585812357</v>
       </c>
       <c r="T28">
-        <v>58.7</v>
+        <v>59.42319502074691</v>
       </c>
       <c r="U28">
         <v>3.4</v>
@@ -4404,16 +4404,16 @@
         <v>92.61490000000001</v>
       </c>
       <c r="Q29">
-        <v>27613</v>
+        <v>36343.40680303379</v>
       </c>
       <c r="R29">
-        <v>0.59</v>
+        <v>0.5706041189931351</v>
       </c>
       <c r="S29">
-        <v>25</v>
+        <v>21.547585812357</v>
       </c>
       <c r="T29">
-        <v>59.6</v>
+        <v>59.36819502074692</v>
       </c>
       <c r="U29">
         <v>3.4</v>
@@ -4541,16 +4541,16 @@
         <v>97.2906</v>
       </c>
       <c r="Q30">
-        <v>35838</v>
+        <v>42154.24890829695</v>
       </c>
       <c r="R30">
-        <v>0.57</v>
+        <v>0.5221830663615562</v>
       </c>
       <c r="S30">
-        <v>24.4</v>
+        <v>21.86969107551489</v>
       </c>
       <c r="T30">
-        <v>60.1</v>
+        <v>59.31319502074691</v>
       </c>
       <c r="U30">
         <v>3.6</v>
@@ -4678,16 +4678,16 @@
         <v>101.633</v>
       </c>
       <c r="Q31">
-        <v>148875</v>
+        <v>144935.6173293496</v>
       </c>
       <c r="R31">
-        <v>0.5</v>
+        <v>0.4769199084668195</v>
       </c>
       <c r="S31">
-        <v>18.9</v>
+        <v>18.18021739130437</v>
       </c>
       <c r="T31">
-        <v>60.1</v>
+        <v>59.22319502074691</v>
       </c>
       <c r="U31">
         <v>3.6</v>
@@ -4830,16 +4830,16 @@
         <v>100.0048</v>
       </c>
       <c r="Q32">
-        <v>45755</v>
+        <v>47431.30153987589</v>
       </c>
       <c r="R32">
-        <v>0.45</v>
+        <v>0.4969199084668194</v>
       </c>
       <c r="S32">
-        <v>19.6</v>
+        <v>20.04337528604121</v>
       </c>
       <c r="T32">
-        <v>60.2</v>
+        <v>59.40319502074691</v>
       </c>
       <c r="U32">
         <v>3.7</v>
@@ -4967,16 +4967,16 @@
         <v>99.8138</v>
       </c>
       <c r="Q33">
-        <v>22177</v>
+        <v>30844.19627671799</v>
       </c>
       <c r="R33">
-        <v>0.46</v>
+        <v>0.4095514874141878</v>
       </c>
       <c r="S33">
-        <v>17.7</v>
+        <v>17.77863844393594</v>
       </c>
       <c r="T33">
-        <v>59.3</v>
+        <v>59.07319502074691</v>
       </c>
       <c r="U33">
         <v>3.7</v>
@@ -5104,16 +5104,16 @@
         <v>96.7277</v>
       </c>
       <c r="Q34">
-        <v>24410</v>
+        <v>28522.66996092852</v>
       </c>
       <c r="R34">
-        <v>0.47</v>
+        <v>0.4500778032036615</v>
       </c>
       <c r="S34">
-        <v>18.7</v>
+        <v>17.51179633867278</v>
       </c>
       <c r="T34">
-        <v>59.7</v>
+        <v>59.19319502074691</v>
       </c>
       <c r="U34">
         <v>3.7</v>
@@ -5256,16 +5256,16 @@
         <v>100.1403</v>
       </c>
       <c r="Q35">
-        <v>31785</v>
+        <v>33161.03838198115</v>
       </c>
       <c r="R35">
-        <v>0.59</v>
+        <v>0.5537620137299771</v>
       </c>
       <c r="S35">
-        <v>13.8</v>
+        <v>14.16442791762015</v>
       </c>
       <c r="T35">
-        <v>60.1</v>
+        <v>59.4081950207469</v>
       </c>
       <c r="U35">
         <v>3.7</v>
@@ -5393,16 +5393,16 @@
         <v>101.2002</v>
       </c>
       <c r="Q36">
-        <v>32533</v>
+        <v>33140.66996092853</v>
       </c>
       <c r="R36">
-        <v>0.53</v>
+        <v>0.5163935926773459</v>
       </c>
       <c r="S36">
-        <v>18.2</v>
+        <v>15.40969107551489</v>
       </c>
       <c r="T36">
-        <v>60</v>
+        <v>59.40319502074691</v>
       </c>
       <c r="U36">
         <v>3.9</v>
@@ -5530,16 +5530,16 @@
         <v>108.3744</v>
       </c>
       <c r="Q37">
-        <v>107251</v>
+        <v>38988.3541714548</v>
       </c>
       <c r="R37">
-        <v>0.46</v>
+        <v>0.5011304347826089</v>
       </c>
       <c r="S37">
-        <v>17.2</v>
+        <v>20.53916475972542</v>
       </c>
       <c r="T37">
-        <v>59</v>
+        <v>59.59819502074691</v>
       </c>
       <c r="U37">
         <v>3.7</v>
@@ -5682,16 +5682,16 @@
         <v>107.0081</v>
       </c>
       <c r="Q38">
-        <v>14358</v>
+        <v>31526.44890829694</v>
       </c>
       <c r="R38">
-        <v>0.37</v>
+        <v>0.4941304347826087</v>
       </c>
       <c r="S38">
-        <v>10.6</v>
+        <v>17.66521739130436</v>
       </c>
       <c r="T38">
-        <v>58.6</v>
+        <v>60.24748073503263</v>
       </c>
       <c r="U38">
         <v>3.5</v>
@@ -5819,16 +5819,16 @@
         <v>104.2215</v>
       </c>
       <c r="Q39">
-        <v>24797</v>
+        <v>39612.93311882326</v>
       </c>
       <c r="R39">
-        <v>0.54</v>
+        <v>0.5441304347826088</v>
       </c>
       <c r="S39">
-        <v>15.7</v>
+        <v>17.32521739130436</v>
       </c>
       <c r="T39">
-        <v>58.7</v>
+        <v>60.36319502074691</v>
       </c>
       <c r="U39">
         <v>3.6</v>
@@ -5956,16 +5956,16 @@
         <v>105.493</v>
       </c>
       <c r="Q40">
-        <v>24466</v>
+        <v>32293.51206619167</v>
       </c>
       <c r="R40">
-        <v>0.51</v>
+        <v>0.497446224256293</v>
       </c>
       <c r="S40">
-        <v>18.9</v>
+        <v>16.207585812357</v>
       </c>
       <c r="T40">
-        <v>59.7</v>
+        <v>60.42319502074691</v>
       </c>
       <c r="U40">
         <v>3.6</v>
@@ -6108,16 +6108,16 @@
         <v>103.376</v>
       </c>
       <c r="Q41">
-        <v>18537</v>
+        <v>27267.40680303379</v>
       </c>
       <c r="R41">
-        <v>0.58</v>
+        <v>0.5606041189931351</v>
       </c>
       <c r="S41">
-        <v>26.7</v>
+        <v>23.247585812357</v>
       </c>
       <c r="T41">
-        <v>60.5</v>
+        <v>60.26819502074692</v>
       </c>
       <c r="U41">
         <v>3.6</v>
@@ -6245,16 +6245,16 @@
         <v>102.265</v>
       </c>
       <c r="Q42">
-        <v>30426</v>
+        <v>36742.24890829695</v>
       </c>
       <c r="R42">
-        <v>0.64</v>
+        <v>0.5921830663615563</v>
       </c>
       <c r="S42">
-        <v>26.3</v>
+        <v>23.76969107551489</v>
       </c>
       <c r="T42">
-        <v>60.6</v>
+        <v>59.81319502074691</v>
       </c>
       <c r="U42">
         <v>3.7</v>
@@ -6382,16 +6382,16 @@
         <v>99.24339999999999</v>
       </c>
       <c r="Q43">
-        <v>41080</v>
+        <v>37140.61732934956</v>
       </c>
       <c r="R43">
-        <v>0.54</v>
+        <v>0.5169199084668196</v>
       </c>
       <c r="S43">
-        <v>24.5</v>
+        <v>23.78021739130437</v>
       </c>
       <c r="T43">
-        <v>60.8</v>
+        <v>59.9231950207469</v>
       </c>
       <c r="U43">
         <v>3.5</v>
@@ -6534,16 +6534,16 @@
         <v>103.6678</v>
       </c>
       <c r="Q44">
-        <v>35272</v>
+        <v>36948.30153987589</v>
       </c>
       <c r="R44">
-        <v>0.64</v>
+        <v>0.6869199084668194</v>
       </c>
       <c r="S44">
-        <v>22</v>
+        <v>22.44337528604121</v>
       </c>
       <c r="T44">
-        <v>60.6</v>
+        <v>59.80319502074691</v>
       </c>
       <c r="U44">
         <v>3.7</v>
@@ -6671,16 +6671,16 @@
         <v>103.3598</v>
       </c>
       <c r="Q45">
-        <v>30103</v>
+        <v>38770.19627671799</v>
       </c>
       <c r="R45">
-        <v>0.7</v>
+        <v>0.6495514874141878</v>
       </c>
       <c r="S45">
-        <v>20.1</v>
+        <v>20.17863844393595</v>
       </c>
       <c r="T45">
-        <v>59.6</v>
+        <v>59.37319502074691</v>
       </c>
       <c r="U45">
         <v>3.8</v>
@@ -6808,16 +6808,16 @@
         <v>105.7197</v>
       </c>
       <c r="Q46">
-        <v>32985</v>
+        <v>37097.66996092852</v>
       </c>
       <c r="R46">
-        <v>0.53</v>
+        <v>0.5100778032036616</v>
       </c>
       <c r="S46">
-        <v>20.7</v>
+        <v>19.51179633867278</v>
       </c>
       <c r="T46">
-        <v>60.6</v>
+        <v>60.09319502074691</v>
       </c>
       <c r="U46">
         <v>3.7</v>
@@ -6960,16 +6960,16 @@
         <v>101.7079</v>
       </c>
       <c r="Q47">
-        <v>49055</v>
+        <v>50431.03838198115</v>
       </c>
       <c r="R47">
-        <v>0.64</v>
+        <v>0.6037620137299772</v>
       </c>
       <c r="S47">
-        <v>19.5</v>
+        <v>19.86442791762014</v>
       </c>
       <c r="T47">
-        <v>60.8</v>
+        <v>60.1081950207469</v>
       </c>
       <c r="U47">
         <v>3.7</v>
@@ -7097,16 +7097,16 @@
         <v>97.35250000000001</v>
       </c>
       <c r="Q48">
-        <v>38706</v>
+        <v>39313.66996092853</v>
       </c>
       <c r="R48">
-        <v>0.49</v>
+        <v>0.4763935926773458</v>
       </c>
       <c r="S48">
-        <v>20.6</v>
+        <v>17.80969107551489</v>
       </c>
       <c r="T48">
-        <v>60.5</v>
+        <v>59.90319502074691</v>
       </c>
       <c r="U48">
         <v>3.7</v>
@@ -7234,16 +7234,16 @@
         <v>101.0564</v>
       </c>
       <c r="Q49">
-        <v>124015</v>
+        <v>55752.3541714548</v>
       </c>
       <c r="R49">
-        <v>0.42</v>
+        <v>0.4611304347826088</v>
       </c>
       <c r="S49">
-        <v>19</v>
+        <v>22.33916475972542</v>
       </c>
       <c r="T49">
-        <v>59.6</v>
+        <v>60.19819502074692</v>
       </c>
       <c r="U49">
         <v>3.8</v>
@@ -7386,16 +7386,16 @@
         <v>99.5968</v>
       </c>
       <c r="Q50">
-        <v>30048</v>
+        <v>47216.44890829694</v>
       </c>
       <c r="R50">
-        <v>0.37</v>
+        <v>0.4941304347826087</v>
       </c>
       <c r="S50">
-        <v>12.9</v>
+        <v>19.96521739130436</v>
       </c>
       <c r="T50">
-        <v>58.4</v>
+        <v>60.04748073503263</v>
       </c>
       <c r="U50">
         <v>3.8</v>
@@ -7523,16 +7523,16 @@
         <v>98.3657</v>
       </c>
       <c r="Q51">
-        <v>17458</v>
+        <v>32273.93311882326</v>
       </c>
       <c r="R51">
-        <v>0.47</v>
+        <v>0.4741304347826087</v>
       </c>
       <c r="S51">
-        <v>16</v>
+        <v>17.62521739130436</v>
       </c>
       <c r="T51">
-        <v>58.3</v>
+        <v>59.96319502074691</v>
       </c>
       <c r="U51">
         <v>3.7</v>
@@ -7660,16 +7660,16 @@
         <v>104.4836</v>
       </c>
       <c r="Q52">
-        <v>30743</v>
+        <v>38570.51206619167</v>
       </c>
       <c r="R52">
-        <v>0.49</v>
+        <v>0.477446224256293</v>
       </c>
       <c r="S52">
-        <v>19.1</v>
+        <v>16.407585812357</v>
       </c>
       <c r="T52">
-        <v>59.4</v>
+        <v>60.12319502074691</v>
       </c>
       <c r="U52">
         <v>3.7</v>
@@ -7812,16 +7812,16 @@
         <v>105.1072</v>
       </c>
       <c r="Q53">
-        <v>25115</v>
+        <v>33845.40680303379</v>
       </c>
       <c r="R53">
-        <v>0.5600000000000001</v>
+        <v>0.5406041189931352</v>
       </c>
       <c r="S53">
-        <v>23.1</v>
+        <v>19.647585812357</v>
       </c>
       <c r="T53">
-        <v>60.3</v>
+        <v>60.06819502074691</v>
       </c>
       <c r="U53">
         <v>3.7</v>
@@ -7949,16 +7949,16 @@
         <v>106.745</v>
       </c>
       <c r="Q54">
-        <v>56039</v>
+        <v>62355.24890829695</v>
       </c>
       <c r="R54">
-        <v>0.57</v>
+        <v>0.5221830663615562</v>
       </c>
       <c r="S54">
-        <v>27.9</v>
+        <v>25.36969107551489</v>
       </c>
       <c r="T54">
-        <v>60.8</v>
+        <v>60.01319502074691</v>
       </c>
       <c r="U54">
         <v>3.7</v>
@@ -8086,16 +8086,16 @@
         <v>107.0997</v>
       </c>
       <c r="Q55">
-        <v>32145</v>
+        <v>28205.61732934956</v>
       </c>
       <c r="R55">
-        <v>0.53</v>
+        <v>0.5069199084668196</v>
       </c>
       <c r="S55">
-        <v>27</v>
+        <v>26.28021739130437</v>
       </c>
       <c r="T55">
-        <v>60.8</v>
+        <v>59.9231950207469</v>
       </c>
       <c r="U55">
         <v>3.8</v>
@@ -8238,16 +8238,16 @@
         <v>104.7035</v>
       </c>
       <c r="Q56">
-        <v>26642</v>
+        <v>28318.30153987589</v>
       </c>
       <c r="R56">
-        <v>0.5</v>
+        <v>0.5469199084668194</v>
       </c>
       <c r="S56">
-        <v>25.5</v>
+        <v>25.94337528604121</v>
       </c>
       <c r="T56">
-        <v>60.6</v>
+        <v>59.80319502074691</v>
       </c>
       <c r="U56">
         <v>3.8</v>
@@ -8375,16 +8375,16 @@
         <v>104.8727</v>
       </c>
       <c r="Q57">
-        <v>20202</v>
+        <v>28869.19627671799</v>
       </c>
       <c r="R57">
-        <v>0.55</v>
+        <v>0.4995514874141879</v>
       </c>
       <c r="S57">
-        <v>23.9</v>
+        <v>23.97863844393594</v>
       </c>
       <c r="T57">
-        <v>59.7</v>
+        <v>59.47319502074691</v>
       </c>
       <c r="U57">
         <v>3.7</v>
@@ -8512,16 +8512,16 @@
         <v>104.761</v>
       </c>
       <c r="Q58">
-        <v>25373</v>
+        <v>29485.66996092852</v>
       </c>
       <c r="R58">
-        <v>0.5600000000000001</v>
+        <v>0.5400778032036616</v>
       </c>
       <c r="S58">
-        <v>25.2</v>
+        <v>24.01179633867278</v>
       </c>
       <c r="T58">
-        <v>60.2</v>
+        <v>59.69319502074691</v>
       </c>
       <c r="U58">
         <v>4</v>
@@ -8664,16 +8664,16 @@
         <v>102.2283</v>
       </c>
       <c r="Q59">
-        <v>26024</v>
+        <v>27400.03838198115</v>
       </c>
       <c r="R59">
-        <v>0.59</v>
+        <v>0.5537620137299771</v>
       </c>
       <c r="S59">
-        <v>27.3</v>
+        <v>27.66442791762015</v>
       </c>
       <c r="T59">
-        <v>60.5</v>
+        <v>59.8081950207469</v>
       </c>
       <c r="U59">
         <v>3.9</v>
@@ -8801,16 +8801,16 @@
         <v>106.0255</v>
       </c>
       <c r="Q60">
-        <v>25822</v>
+        <v>26429.66996092853</v>
       </c>
       <c r="R60">
-        <v>0.58</v>
+        <v>0.5663935926773458</v>
       </c>
       <c r="S60">
-        <v>32.6</v>
+        <v>29.80969107551489</v>
       </c>
       <c r="T60">
-        <v>60.5</v>
+        <v>59.90319502074691</v>
       </c>
       <c r="U60">
         <v>3.6</v>
@@ -8938,16 +8938,16 @@
         <v>102.5676</v>
       </c>
       <c r="Q61">
-        <v>148030</v>
+        <v>79767.3541714548</v>
       </c>
       <c r="R61">
-        <v>0.45</v>
+        <v>0.4911304347826088</v>
       </c>
       <c r="S61">
-        <v>21.1</v>
+        <v>24.43916475972542</v>
       </c>
       <c r="T61">
-        <v>59.2</v>
+        <v>59.79819502074692</v>
       </c>
       <c r="U61">
         <v>3.5</v>
@@ -9090,16 +9090,16 @@
         <v>98.0681</v>
       </c>
       <c r="Q62">
-        <v>30459</v>
+        <v>47627.44890829694</v>
       </c>
       <c r="R62">
-        <v>0.38</v>
+        <v>0.5041304347826087</v>
       </c>
       <c r="S62">
-        <v>17.9</v>
+        <v>24.96521739130436</v>
       </c>
       <c r="T62">
-        <v>58.5</v>
+        <v>60.14748073503263</v>
       </c>
       <c r="U62">
         <v>3.4</v>
@@ -9227,16 +9227,16 @@
         <v>99.7563</v>
       </c>
       <c r="Q63">
-        <v>28862</v>
+        <v>43677.93311882326</v>
       </c>
       <c r="R63">
-        <v>0.51</v>
+        <v>0.5141304347826088</v>
       </c>
       <c r="S63">
-        <v>21.7</v>
+        <v>23.32521739130436</v>
       </c>
       <c r="T63">
-        <v>58.3</v>
+        <v>59.96319502074691</v>
       </c>
       <c r="U63">
         <v>3.6</v>
@@ -9364,16 +9364,16 @@
         <v>106.3285</v>
       </c>
       <c r="Q64">
-        <v>24470</v>
+        <v>32297.51206619167</v>
       </c>
       <c r="R64">
-        <v>0.55</v>
+        <v>0.5374462242562931</v>
       </c>
       <c r="S64">
-        <v>28.58</v>
+        <v>25.887585812357</v>
       </c>
       <c r="T64">
-        <v>59.4</v>
+        <v>60.12319502074691</v>
       </c>
       <c r="U64">
         <v>3.5</v>
@@ -9516,16 +9516,16 @@
         <v>104.1006</v>
       </c>
       <c r="Q65">
-        <v>26968</v>
+        <v>35698.40680303379</v>
       </c>
       <c r="R65">
-        <v>0.59</v>
+        <v>0.5706041189931351</v>
       </c>
       <c r="S65">
-        <v>31.22</v>
+        <v>27.767585812357</v>
       </c>
       <c r="T65">
-        <v>60.4</v>
+        <v>60.16819502074691</v>
       </c>
       <c r="U65">
         <v>3.5</v>
@@ -9653,16 +9653,16 @@
         <v>103.8565</v>
       </c>
       <c r="Q66">
-        <v>28227</v>
+        <v>34543.24890829695</v>
       </c>
       <c r="R66">
-        <v>0.5600000000000001</v>
+        <v>0.5121830663615563</v>
       </c>
       <c r="S66">
-        <v>27.7</v>
+        <v>25.16969107551489</v>
       </c>
       <c r="T66">
-        <v>60.9</v>
+        <v>60.11319502074691</v>
       </c>
       <c r="U66">
         <v>3.4</v>
@@ -9790,16 +9790,16 @@
         <v>102.6973</v>
       </c>
       <c r="Q67">
-        <v>42360</v>
+        <v>38420.61732934956</v>
       </c>
       <c r="R67">
-        <v>0.5</v>
+        <v>0.4769199084668195</v>
       </c>
       <c r="S67">
-        <v>24.4</v>
+        <v>23.68021739130437</v>
       </c>
       <c r="T67">
-        <v>60.9</v>
+        <v>60.0231950207469</v>
       </c>
       <c r="U67">
         <v>3.5</v>
@@ -9942,16 +9942,16 @@
         <v>99.76600000000001</v>
       </c>
       <c r="Q68">
-        <v>57265</v>
+        <v>58941.30153987589</v>
       </c>
       <c r="R68">
-        <v>0.41</v>
+        <v>0.4569199084668193</v>
       </c>
       <c r="S68">
-        <v>24.3</v>
+        <v>24.74337528604121</v>
       </c>
       <c r="T68">
-        <v>60.7</v>
+        <v>59.90319502074691</v>
       </c>
       <c r="U68">
         <v>3.5</v>
@@ -10079,16 +10079,16 @@
         <v>103.0071</v>
       </c>
       <c r="Q69">
-        <v>22828</v>
+        <v>31495.19627671799</v>
       </c>
       <c r="R69">
-        <v>0.51</v>
+        <v>0.4595514874141878</v>
       </c>
       <c r="S69">
-        <v>24.53</v>
+        <v>24.60863844393594</v>
       </c>
       <c r="T69">
-        <v>60</v>
+        <v>59.77319502074691</v>
       </c>
       <c r="U69">
         <v>3.5</v>
@@ -10216,16 +10216,16 @@
         <v>106.0952</v>
       </c>
       <c r="Q70">
-        <v>42119</v>
+        <v>46231.66996092852</v>
       </c>
       <c r="R70">
-        <v>0.47</v>
+        <v>0.4500778032036615</v>
       </c>
       <c r="S70">
-        <v>26.4</v>
+        <v>25.21179633867278</v>
       </c>
       <c r="T70">
-        <v>60.4</v>
+        <v>59.89319502074691</v>
       </c>
       <c r="U70">
         <v>3.5</v>
@@ -10368,16 +10368,16 @@
         <v>113.9562</v>
       </c>
       <c r="Q71">
-        <v>23734</v>
+        <v>25110.03838198115</v>
       </c>
       <c r="R71">
-        <v>0.47</v>
+        <v>0.4337620137299771</v>
       </c>
       <c r="S71">
-        <v>22.7</v>
+        <v>23.06442791762014</v>
       </c>
       <c r="T71">
-        <v>60.7</v>
+        <v>60.0081950207469</v>
       </c>
       <c r="U71">
         <v>3.6</v>
@@ -10505,16 +10505,16 @@
         <v>107.298</v>
       </c>
       <c r="Q72">
-        <v>30166</v>
+        <v>30773.66996092853</v>
       </c>
       <c r="R72">
-        <v>0.43</v>
+        <v>0.4163935926773458</v>
       </c>
       <c r="S72">
-        <v>25.34</v>
+        <v>22.54969107551489</v>
       </c>
       <c r="T72">
-        <v>60.6</v>
+        <v>60.00319502074692</v>
       </c>
       <c r="U72">
         <v>3.5</v>
@@ -10642,16 +10642,16 @@
         <v>107.4657</v>
       </c>
       <c r="Q73">
-        <v>112045</v>
+        <v>43782.3541714548</v>
       </c>
       <c r="R73">
-        <v>0.42</v>
+        <v>0.4611304347826088</v>
       </c>
       <c r="S73">
-        <v>23.98</v>
+        <v>27.31916475972542</v>
       </c>
       <c r="T73">
-        <v>59.4</v>
+        <v>59.99819502074691</v>
       </c>
       <c r="U73">
         <v>3.4</v>
@@ -10794,16 +10794,16 @@
         <v>105.123</v>
       </c>
       <c r="Q74">
-        <v>12038</v>
+        <v>29206.44890829694</v>
       </c>
       <c r="R74">
-        <v>0.37</v>
+        <v>0.4941304347826087</v>
       </c>
       <c r="S74">
-        <v>21.8</v>
+        <v>28.86521739130436</v>
       </c>
       <c r="T74">
-        <v>58.7</v>
+        <v>60.34748073503263</v>
       </c>
       <c r="U74">
         <v>3.4</v>
@@ -10931,16 +10931,16 @@
         <v>109.0331</v>
       </c>
       <c r="Q75">
-        <v>17751</v>
+        <v>32566.93311882326</v>
       </c>
       <c r="R75">
-        <v>0.39</v>
+        <v>0.3941304347826088</v>
       </c>
       <c r="S75">
-        <v>24.4</v>
+        <v>26.02521739130436</v>
       </c>
       <c r="T75">
-        <v>58.5</v>
+        <v>60.16319502074691</v>
       </c>
       <c r="U75">
         <v>3.2</v>
@@ -11068,16 +11068,16 @@
         <v>106.7167</v>
       </c>
       <c r="Q76">
-        <v>20038</v>
+        <v>27865.51206619167</v>
       </c>
       <c r="R76">
-        <v>0.52</v>
+        <v>0.507446224256293</v>
       </c>
       <c r="S76">
-        <v>28.9</v>
+        <v>26.207585812357</v>
       </c>
       <c r="T76">
-        <v>59.6</v>
+        <v>60.32319502074691</v>
       </c>
       <c r="U76">
         <v>3.2</v>
@@ -11220,16 +11220,16 @@
         <v>108.5913</v>
       </c>
       <c r="Q77">
-        <v>19186</v>
+        <v>27916.40680303379</v>
       </c>
       <c r="R77">
-        <v>0.52</v>
+        <v>0.5006041189931352</v>
       </c>
       <c r="S77">
-        <v>28.7</v>
+        <v>25.247585812357</v>
       </c>
       <c r="T77">
-        <v>60.5</v>
+        <v>60.26819502074692</v>
       </c>
       <c r="U77">
         <v>3.3</v>
@@ -11357,16 +11357,16 @@
         <v>107.4103</v>
       </c>
       <c r="Q78">
-        <v>31197</v>
+        <v>37513.24890829695</v>
       </c>
       <c r="R78">
-        <v>0.54</v>
+        <v>0.4921830663615563</v>
       </c>
       <c r="S78">
-        <v>27.4</v>
+        <v>24.86969107551489</v>
       </c>
       <c r="T78">
-        <v>61</v>
+        <v>60.21319502074691</v>
       </c>
       <c r="U78">
         <v>3.3</v>
@@ -11494,16 +11494,16 @@
         <v>104.2505</v>
       </c>
       <c r="Q79">
-        <v>30226</v>
+        <v>26286.61732934956</v>
       </c>
       <c r="R79">
-        <v>0.53</v>
+        <v>0.5069199084668196</v>
       </c>
       <c r="S79">
-        <v>26.7</v>
+        <v>25.98021739130437</v>
       </c>
       <c r="T79">
-        <v>61.1</v>
+        <v>60.22319502074691</v>
       </c>
       <c r="U79">
         <v>3.2</v>
@@ -11646,16 +11646,16 @@
         <v>110.1155</v>
       </c>
       <c r="Q80">
-        <v>45848</v>
+        <v>47524.30153987589</v>
       </c>
       <c r="R80">
-        <v>0.47</v>
+        <v>0.5169199084668193</v>
       </c>
       <c r="S80">
-        <v>22.9</v>
+        <v>23.3433752860412</v>
       </c>
       <c r="T80">
-        <v>60.9</v>
+        <v>60.10319502074691</v>
       </c>
       <c r="U80">
         <v>3.3</v>
@@ -11783,16 +11783,16 @@
         <v>109.6796</v>
       </c>
       <c r="Q81">
-        <v>48461</v>
+        <v>57128.19627671799</v>
       </c>
       <c r="R81">
-        <v>0.58</v>
+        <v>0.5295514874141878</v>
       </c>
       <c r="S81">
-        <v>22.9</v>
+        <v>22.97863844393594</v>
       </c>
       <c r="T81">
-        <v>60.1</v>
+        <v>59.87319502074691</v>
       </c>
       <c r="U81">
         <v>3.3</v>
@@ -11920,16 +11920,16 @@
         <v>105.692</v>
       </c>
       <c r="Q82">
-        <v>55745</v>
+        <v>59857.66996092852</v>
       </c>
       <c r="R82">
-        <v>0.5600000000000001</v>
+        <v>0.5400778032036616</v>
       </c>
       <c r="S82">
-        <v>25.2</v>
+        <v>24.01179633867278</v>
       </c>
       <c r="T82">
-        <v>60.5</v>
+        <v>59.99319502074691</v>
       </c>
       <c r="U82">
         <v>3.2</v>
@@ -12072,16 +12072,16 @@
         <v>109.1319</v>
       </c>
       <c r="Q83">
-        <v>102670</v>
+        <v>104046.0383819811</v>
       </c>
       <c r="R83">
-        <v>0.61</v>
+        <v>0.5737620137299771</v>
       </c>
       <c r="S83">
-        <v>23.8</v>
+        <v>24.16442791762015</v>
       </c>
       <c r="T83">
-        <v>60.7</v>
+        <v>60.0081950207469</v>
       </c>
       <c r="U83">
         <v>3.3</v>
@@ -12209,16 +12209,16 @@
         <v>109.6664</v>
       </c>
       <c r="Q84">
-        <v>75485</v>
+        <v>76092.66996092853</v>
       </c>
       <c r="R84">
-        <v>0.5600000000000001</v>
+        <v>0.5463935926773459</v>
       </c>
       <c r="S84">
-        <v>28.7</v>
+        <v>25.90969107551489</v>
       </c>
       <c r="T84">
-        <v>60.7</v>
+        <v>60.10319502074692</v>
       </c>
       <c r="U84">
         <v>3.3</v>
@@ -12346,16 +12346,16 @@
         <v>114.2614</v>
       </c>
       <c r="Q85">
-        <v>97147</v>
+        <v>28884.3541714548</v>
       </c>
       <c r="R85">
-        <v>0.52</v>
+        <v>0.5611304347826088</v>
       </c>
       <c r="S85">
-        <v>25.9</v>
+        <v>29.23916475972542</v>
       </c>
       <c r="T85">
-        <v>59.4</v>
+        <v>59.99819502074691</v>
       </c>
       <c r="U85">
         <v>3.2</v>
@@ -12498,16 +12498,16 @@
         <v>109.8222</v>
       </c>
       <c r="Q86">
-        <v>20841</v>
+        <v>38009.44890829694</v>
       </c>
       <c r="R86">
-        <v>0.47</v>
+        <v>0.5941304347826086</v>
       </c>
       <c r="S86">
-        <v>22.1</v>
+        <v>29.16521739130436</v>
       </c>
       <c r="T86">
-        <v>58.6</v>
+        <v>60.24748073503263</v>
       </c>
       <c r="U86">
         <v>3</v>
@@ -12635,16 +12635,16 @@
         <v>104.6487</v>
       </c>
       <c r="Q87">
-        <v>13211</v>
+        <v>28026.93311882326</v>
       </c>
       <c r="R87">
-        <v>0.5600000000000001</v>
+        <v>0.5641304347826088</v>
       </c>
       <c r="S87">
-        <v>25</v>
+        <v>26.62521739130436</v>
       </c>
       <c r="T87">
-        <v>58.3</v>
+        <v>59.96319502074691</v>
       </c>
       <c r="U87">
         <v>3</v>
@@ -12772,16 +12772,16 @@
         <v>102.8129</v>
       </c>
       <c r="Q88">
-        <v>14245</v>
+        <v>22072.51206619167</v>
       </c>
       <c r="R88">
-        <v>0.55</v>
+        <v>0.5374462242562931</v>
       </c>
       <c r="S88">
-        <v>29.6</v>
+        <v>26.907585812357</v>
       </c>
       <c r="T88">
-        <v>59.3</v>
+        <v>60.0231950207469</v>
       </c>
       <c r="U88">
         <v>3</v>
@@ -12924,16 +12924,16 @@
         <v>102.3223</v>
       </c>
       <c r="Q89">
-        <v>34109</v>
+        <v>42839.40680303379</v>
       </c>
       <c r="R89">
-        <v>0.54</v>
+        <v>0.5206041189931352</v>
       </c>
       <c r="S89">
-        <v>30.4</v>
+        <v>26.947585812357</v>
       </c>
       <c r="T89">
-        <v>60.3</v>
+        <v>60.06819502074691</v>
       </c>
       <c r="U89">
         <v>3.1</v>
@@ -13061,16 +13061,16 @@
         <v>101.7576</v>
       </c>
       <c r="Q90">
-        <v>26023</v>
+        <v>32339.24890829695</v>
       </c>
       <c r="R90">
-        <v>0.64</v>
+        <v>0.5921830663615563</v>
       </c>
       <c r="S90">
-        <v>31.7</v>
+        <v>29.16969107551489</v>
       </c>
       <c r="T90">
-        <v>60.8</v>
+        <v>60.01319502074691</v>
       </c>
       <c r="U90">
         <v>3.2</v>
@@ -13198,16 +13198,16 @@
         <v>95.8537</v>
       </c>
       <c r="Q91">
-        <v>23831</v>
+        <v>19891.61732934956</v>
       </c>
       <c r="R91">
-        <v>0.6</v>
+        <v>0.5769199084668195</v>
       </c>
       <c r="S91">
-        <v>27.3</v>
+        <v>26.58021739130437</v>
       </c>
       <c r="T91">
-        <v>60.8</v>
+        <v>59.9231950207469</v>
       </c>
       <c r="U91">
         <v>3.1</v>
@@ -13350,16 +13350,16 @@
         <v>99.2043</v>
       </c>
       <c r="Q92">
-        <v>22805</v>
+        <v>24481.30153987589</v>
       </c>
       <c r="R92">
-        <v>0.52</v>
+        <v>0.5669199084668194</v>
       </c>
       <c r="S92">
-        <v>25.4</v>
+        <v>25.8433752860412</v>
       </c>
       <c r="T92">
-        <v>60.6</v>
+        <v>59.80319502074691</v>
       </c>
       <c r="U92">
         <v>3.1</v>
@@ -13493,16 +13493,16 @@
         <v>102.4028</v>
       </c>
       <c r="Q93">
-        <v>22086</v>
+        <v>30753.19627671799</v>
       </c>
       <c r="R93">
-        <v>0.61</v>
+        <v>0.5595514874141878</v>
       </c>
       <c r="S93">
-        <v>26.4</v>
+        <v>26.47863844393594</v>
       </c>
       <c r="T93">
-        <v>59.8</v>
+        <v>59.57319502074691</v>
       </c>
       <c r="U93">
         <v>3.3</v>
@@ -13636,16 +13636,16 @@
         <v>100.2239</v>
       </c>
       <c r="Q94">
-        <v>18734</v>
+        <v>22846.66996092852</v>
       </c>
       <c r="R94">
-        <v>0.61</v>
+        <v>0.5900778032036615</v>
       </c>
       <c r="S94">
-        <v>26.1</v>
+        <v>24.91179633867278</v>
       </c>
       <c r="T94">
-        <v>60</v>
+        <v>59.49319502074691</v>
       </c>
       <c r="U94">
         <v>3.2</v>
@@ -13794,16 +13794,16 @@
         <v>97.9093</v>
       </c>
       <c r="Q95">
-        <v>21746</v>
+        <v>23122.03838198115</v>
       </c>
       <c r="R95">
-        <v>0.5600000000000001</v>
+        <v>0.5237620137299772</v>
       </c>
       <c r="S95">
-        <v>27.1</v>
+        <v>27.46442791762015</v>
       </c>
       <c r="T95">
-        <v>60.2</v>
+        <v>59.5081950207469</v>
       </c>
       <c r="U95">
         <v>3.3</v>
@@ -13937,16 +13937,16 @@
         <v>95.2308</v>
       </c>
       <c r="Q96">
-        <v>32403</v>
+        <v>33010.66996092853</v>
       </c>
       <c r="R96">
-        <v>0.5</v>
+        <v>0.4863935926773458</v>
       </c>
       <c r="S96">
-        <v>25.4</v>
+        <v>22.60969107551489</v>
       </c>
       <c r="T96">
-        <v>60.1</v>
+        <v>59.50319502074692</v>
       </c>
       <c r="U96">
         <v>3.4</v>
@@ -14080,16 +14080,16 @@
         <v>87.72410000000001</v>
       </c>
       <c r="Q97">
-        <v>121251</v>
+        <v>52988.3541714548</v>
       </c>
       <c r="R97">
-        <v>0.32</v>
+        <v>0.3611304347826088</v>
       </c>
       <c r="S97">
-        <v>18</v>
+        <v>21.33916475972542</v>
       </c>
       <c r="T97">
-        <v>58.6</v>
+        <v>59.19819502074692</v>
       </c>
       <c r="U97">
         <v>3.4</v>
@@ -14238,16 +14238,16 @@
         <v>100.3688</v>
       </c>
       <c r="Q98">
-        <v>9363</v>
+        <v>26531.44890829694</v>
       </c>
       <c r="R98">
-        <v>0.27</v>
+        <v>0.3941304347826087</v>
       </c>
       <c r="S98">
-        <v>16.4</v>
+        <v>23.46521739130436</v>
       </c>
       <c r="T98">
-        <v>57.5</v>
+        <v>59.14748073503263</v>
       </c>
       <c r="U98">
         <v>3.3</v>
@@ -14381,16 +14381,16 @@
         <v>101.928</v>
       </c>
       <c r="Q99">
-        <v>10454</v>
+        <v>25269.93311882326</v>
       </c>
       <c r="R99">
-        <v>0.36</v>
+        <v>0.3641304347826088</v>
       </c>
       <c r="S99">
-        <v>21</v>
+        <v>22.62521739130436</v>
       </c>
       <c r="T99">
-        <v>57.1</v>
+        <v>58.76319502074691</v>
       </c>
       <c r="U99">
         <v>3.3</v>
@@ -14524,16 +14524,16 @@
         <v>95.92910000000001</v>
       </c>
       <c r="Q100">
-        <v>14127</v>
+        <v>21954.51206619167</v>
       </c>
       <c r="R100">
-        <v>0.36</v>
+        <v>0.347446224256293</v>
       </c>
       <c r="S100">
-        <v>24.1</v>
+        <v>21.407585812357</v>
       </c>
       <c r="T100">
-        <v>58</v>
+        <v>58.72319502074691</v>
       </c>
       <c r="U100">
         <v>3.5</v>
@@ -14682,16 +14682,16 @@
         <v>102.6276</v>
       </c>
       <c r="Q101">
-        <v>16387</v>
+        <v>25117.40680303379</v>
       </c>
       <c r="R101">
-        <v>0.41</v>
+        <v>0.3906041189931351</v>
       </c>
       <c r="S101">
-        <v>25.4</v>
+        <v>21.947585812357</v>
       </c>
       <c r="T101">
-        <v>59</v>
+        <v>58.76819502074692</v>
       </c>
       <c r="U101">
         <v>3.6</v>
@@ -14825,16 +14825,16 @@
         <v>99.9135</v>
       </c>
       <c r="Q102">
-        <v>16849</v>
+        <v>23165.24890829695</v>
       </c>
       <c r="R102">
-        <v>0.45</v>
+        <v>0.4021830663615563</v>
       </c>
       <c r="S102">
-        <v>25.2</v>
+        <v>22.66969107551489</v>
       </c>
       <c r="T102">
-        <v>59.4</v>
+        <v>58.61319502074691</v>
       </c>
       <c r="U102">
         <v>3.9</v>
@@ -14968,16 +14968,16 @@
         <v>108.7318</v>
       </c>
       <c r="Q103">
-        <v>31781</v>
+        <v>27841.61732934956</v>
       </c>
       <c r="R103">
-        <v>0.41</v>
+        <v>0.3869199084668195</v>
       </c>
       <c r="S103">
-        <v>25.3</v>
+        <v>24.58021739130437</v>
       </c>
       <c r="T103">
-        <v>60</v>
+        <v>59.12319502074691</v>
       </c>
       <c r="U103">
         <v>3.9</v>
@@ -15126,16 +15126,16 @@
         <v>100.0588</v>
       </c>
       <c r="Q104">
-        <v>23065</v>
+        <v>24741.30153987589</v>
       </c>
       <c r="R104">
-        <v>0.44</v>
+        <v>0.4869199084668194</v>
       </c>
       <c r="S104">
-        <v>25.1</v>
+        <v>25.54337528604121</v>
       </c>
       <c r="T104">
-        <v>59.5</v>
+        <v>58.70319502074691</v>
       </c>
       <c r="U104">
         <v>3.8</v>
@@ -15269,16 +15269,16 @@
         <v>97.4237</v>
       </c>
       <c r="Q105">
-        <v>23866</v>
+        <v>32533.19627671799</v>
       </c>
       <c r="R105">
-        <v>0.55</v>
+        <v>0.4995514874141879</v>
       </c>
       <c r="S105">
-        <v>25.1</v>
+        <v>25.17863844393595</v>
       </c>
       <c r="T105">
-        <v>59</v>
+        <v>58.77319502074691</v>
       </c>
       <c r="U105">
         <v>3.8</v>
@@ -15412,16 +15412,16 @@
         <v>103.8792</v>
       </c>
       <c r="Q106">
-        <v>32201</v>
+        <v>36313.66996092852</v>
       </c>
       <c r="R106">
-        <v>0.53</v>
+        <v>0.5100778032036616</v>
       </c>
       <c r="S106">
-        <v>30.8</v>
+        <v>29.61179633867278</v>
       </c>
       <c r="T106">
-        <v>59.4</v>
+        <v>58.89319502074691</v>
       </c>
       <c r="U106">
         <v>3.6</v>
@@ -15570,16 +15570,16 @@
         <v>100.1449</v>
       </c>
       <c r="Q107">
-        <v>24450</v>
+        <v>25826.03838198115</v>
       </c>
       <c r="R107">
-        <v>0.6</v>
+        <v>0.5637620137299771</v>
       </c>
       <c r="S107">
-        <v>27.9</v>
+        <v>28.26442791762014</v>
       </c>
       <c r="T107">
-        <v>59.4</v>
+        <v>58.7081950207469</v>
       </c>
       <c r="U107">
         <v>3.6</v>
@@ -15713,16 +15713,16 @@
         <v>100.8943</v>
       </c>
       <c r="Q108">
-        <v>33739</v>
+        <v>34346.66996092853</v>
       </c>
       <c r="R108">
-        <v>0.62</v>
+        <v>0.6063935926773458</v>
       </c>
       <c r="S108">
-        <v>29.2</v>
+        <v>26.40969107551489</v>
       </c>
       <c r="T108">
-        <v>59.2</v>
+        <v>58.60319502074692</v>
       </c>
       <c r="U108">
         <v>3.7</v>
@@ -15856,16 +15856,16 @@
         <v>97.31610000000001</v>
       </c>
       <c r="Q109">
-        <v>145505</v>
+        <v>77242.3541714548</v>
       </c>
       <c r="R109">
-        <v>0.46</v>
+        <v>0.5011304347826089</v>
       </c>
       <c r="S109">
-        <v>20</v>
+        <v>23.33916475972542</v>
       </c>
       <c r="T109">
-        <v>57.8</v>
+        <v>58.39819502074691</v>
       </c>
       <c r="U109">
         <v>3.6</v>
@@ -16014,16 +16014,16 @@
         <v>103.0231</v>
       </c>
       <c r="Q110">
-        <v>9282</v>
+        <v>26450.44890829694</v>
       </c>
       <c r="R110">
-        <v>0.45</v>
+        <v>0.5741304347826086</v>
       </c>
       <c r="S110">
-        <v>16.3</v>
+        <v>23.36521739130436</v>
       </c>
       <c r="T110">
-        <v>56.8</v>
+        <v>58.44748073503263</v>
       </c>
       <c r="U110">
         <v>4.7</v>
@@ -16157,16 +16157,16 @@
         <v>102.7144</v>
       </c>
       <c r="Q111">
-        <v>15237</v>
+        <v>30052.93311882326</v>
       </c>
       <c r="R111">
-        <v>0.65</v>
+        <v>0.6541304347826088</v>
       </c>
       <c r="S111">
-        <v>25.1</v>
+        <v>26.72521739130436</v>
       </c>
       <c r="T111">
-        <v>56.7</v>
+        <v>58.36319502074691</v>
       </c>
       <c r="U111">
         <v>4</v>
@@ -16300,16 +16300,16 @@
         <v>101.6672</v>
       </c>
       <c r="Q112">
-        <v>25029</v>
+        <v>32856.51206619167</v>
       </c>
       <c r="R112">
-        <v>0.6899999999999999</v>
+        <v>0.677446224256293</v>
       </c>
       <c r="S112">
-        <v>27.7</v>
+        <v>25.007585812357</v>
       </c>
       <c r="T112">
-        <v>57.9</v>
+        <v>58.62319502074691</v>
       </c>
       <c r="U112">
         <v>3.6</v>
@@ -16458,16 +16458,16 @@
         <v>97.3006</v>
       </c>
       <c r="Q113">
-        <v>21077</v>
+        <v>29807.40680303379</v>
       </c>
       <c r="R113">
-        <v>0.64</v>
+        <v>0.6206041189931352</v>
       </c>
       <c r="S113">
-        <v>28.7</v>
+        <v>25.247585812357</v>
       </c>
       <c r="T113">
-        <v>59.2</v>
+        <v>58.96819502074692</v>
       </c>
       <c r="U113">
         <v>3.6</v>
@@ -16601,16 +16601,16 @@
         <v>100.5563</v>
       </c>
       <c r="Q114">
-        <v>21374</v>
+        <v>27690.24890829695</v>
       </c>
       <c r="R114">
-        <v>0.6899999999999999</v>
+        <v>0.6421830663615562</v>
       </c>
       <c r="S114">
-        <v>27.8</v>
+        <v>25.26969107551489</v>
       </c>
       <c r="T114">
-        <v>60.1</v>
+        <v>59.31319502074691</v>
       </c>
       <c r="U114">
         <v>3.2</v>
@@ -16744,16 +16744,16 @@
         <v>100.6668</v>
       </c>
       <c r="Q115">
-        <v>18310</v>
+        <v>14370.61732934956</v>
       </c>
       <c r="R115">
-        <v>0.68</v>
+        <v>0.6569199084668196</v>
       </c>
       <c r="S115">
-        <v>26.3</v>
+        <v>25.58021739130437</v>
       </c>
       <c r="T115">
-        <v>60</v>
+        <v>59.12319502074691</v>
       </c>
       <c r="U115">
         <v>3.5</v>
@@ -16902,16 +16902,16 @@
         <v>100.1615</v>
       </c>
       <c r="Q116">
-        <v>16812</v>
+        <v>18488.30153987589</v>
       </c>
       <c r="R116">
-        <v>0.58</v>
+        <v>0.6269199084668193</v>
       </c>
       <c r="S116">
-        <v>24.5</v>
+        <v>24.94337528604121</v>
       </c>
       <c r="T116">
-        <v>60</v>
+        <v>59.20319502074691</v>
       </c>
       <c r="U116">
         <v>3.8</v>
@@ -17045,16 +17045,16 @@
         <v>97.11450000000001</v>
       </c>
       <c r="Q117">
-        <v>14888</v>
+        <v>23555.19627671799</v>
       </c>
       <c r="R117">
-        <v>0.77</v>
+        <v>0.7195514874141878</v>
       </c>
       <c r="S117">
-        <v>26</v>
+        <v>26.07863844393594</v>
       </c>
       <c r="T117">
-        <v>59.2</v>
+        <v>58.97319502074691</v>
       </c>
       <c r="U117">
         <v>3.5</v>
@@ -17188,16 +17188,16 @@
         <v>92.8766</v>
       </c>
       <c r="Q118">
-        <v>21285</v>
+        <v>25397.66996092852</v>
       </c>
       <c r="R118">
-        <v>0.63</v>
+        <v>0.6100778032036616</v>
       </c>
       <c r="S118">
-        <v>26.3</v>
+        <v>25.11179633867278</v>
       </c>
       <c r="T118">
-        <v>59.3</v>
+        <v>58.79319502074691</v>
       </c>
       <c r="U118">
         <v>3.8</v>
@@ -17346,16 +17346,16 @@
         <v>90.0903</v>
       </c>
       <c r="Q119">
-        <v>27437</v>
+        <v>28813.03838198115</v>
       </c>
       <c r="R119">
-        <v>0.68</v>
+        <v>0.6437620137299772</v>
       </c>
       <c r="S119">
-        <v>26.6</v>
+        <v>26.96442791762015</v>
       </c>
       <c r="T119">
-        <v>59.5</v>
+        <v>58.8081950207469</v>
       </c>
       <c r="U119">
         <v>3.7</v>
@@ -17489,16 +17489,16 @@
         <v>92.7663</v>
       </c>
       <c r="Q120">
-        <v>38308</v>
+        <v>38915.66996092853</v>
       </c>
       <c r="R120">
-        <v>0.64</v>
+        <v>0.6263935926773458</v>
       </c>
       <c r="S120">
-        <v>29.2</v>
+        <v>26.40969107551489</v>
       </c>
       <c r="T120">
-        <v>59.3</v>
+        <v>58.70319502074691</v>
       </c>
       <c r="U120">
         <v>3.3</v>
@@ -17632,16 +17632,16 @@
         <v>96.39060000000001</v>
       </c>
       <c r="Q121">
-        <v>157503</v>
+        <v>89240.3541714548</v>
       </c>
       <c r="R121">
-        <v>0.67</v>
+        <v>0.7111304347826088</v>
       </c>
       <c r="S121">
-        <v>21.8</v>
+        <v>25.13916475972542</v>
       </c>
       <c r="T121">
-        <v>58.2</v>
+        <v>58.79819502074692</v>
       </c>
       <c r="U121">
         <v>3.6</v>
@@ -17790,16 +17790,16 @@
         <v>93.227</v>
       </c>
       <c r="Q122">
-        <v>18500</v>
+        <v>35668.44890829694</v>
       </c>
       <c r="R122">
-        <v>0.6</v>
+        <v>0.7241304347826086</v>
       </c>
       <c r="S122">
-        <v>18.4</v>
+        <v>25.46521739130436</v>
       </c>
       <c r="T122">
-        <v>57</v>
+        <v>58.64748073503263</v>
       </c>
       <c r="U122">
         <v>3.6</v>
@@ -17933,16 +17933,16 @@
         <v>84.3017</v>
       </c>
       <c r="Q123">
-        <v>19176</v>
+        <v>33991.93311882326</v>
       </c>
       <c r="R123">
-        <v>0.76</v>
+        <v>0.7641304347826088</v>
       </c>
       <c r="S123">
-        <v>22</v>
+        <v>23.62521739130436</v>
       </c>
       <c r="T123">
-        <v>57.3</v>
+        <v>58.96319502074691</v>
       </c>
       <c r="U123">
         <v>3.7</v>
@@ -18076,16 +18076,16 @@
         <v>95.0284</v>
       </c>
       <c r="Q124">
-        <v>32853</v>
+        <v>40680.51206619167</v>
       </c>
       <c r="R124">
-        <v>0.75</v>
+        <v>0.737446224256293</v>
       </c>
       <c r="S124">
-        <v>30.8</v>
+        <v>28.107585812357</v>
       </c>
       <c r="T124">
-        <v>58.5</v>
+        <v>59.22319502074691</v>
       </c>
       <c r="U124">
         <v>3.8</v>
@@ -18234,16 +18234,16 @@
         <v>89.38630000000001</v>
       </c>
       <c r="Q125">
-        <v>41156</v>
+        <v>49886.40680303379</v>
       </c>
       <c r="R125">
-        <v>0.6899999999999999</v>
+        <v>0.6706041189931351</v>
       </c>
       <c r="S125">
-        <v>28.6</v>
+        <v>25.147585812357</v>
       </c>
       <c r="T125">
-        <v>59.5</v>
+        <v>59.26819502074692</v>
       </c>
       <c r="U125">
         <v>3.5</v>
@@ -18377,16 +18377,16 @@
         <v>90.0872</v>
       </c>
       <c r="Q126">
-        <v>32716</v>
+        <v>39032.24890829695</v>
       </c>
       <c r="R126">
-        <v>0.76</v>
+        <v>0.7121830663615563</v>
       </c>
       <c r="S126">
-        <v>28.4</v>
+        <v>25.86969107551489</v>
       </c>
       <c r="T126">
-        <v>60.4</v>
+        <v>59.61319502074691</v>
       </c>
       <c r="U126">
         <v>3.3</v>
@@ -18520,16 +18520,16 @@
         <v>98.697</v>
       </c>
       <c r="Q127">
-        <v>31866</v>
+        <v>27926.61732934956</v>
       </c>
       <c r="R127">
-        <v>0.77</v>
+        <v>0.7469199084668195</v>
       </c>
       <c r="S127">
-        <v>26.7</v>
+        <v>25.98021739130437</v>
       </c>
       <c r="T127">
-        <v>60.5</v>
+        <v>59.62319502074691</v>
       </c>
       <c r="U127">
         <v>3.3</v>
@@ -18678,16 +18678,16 @@
         <v>85.9871</v>
       </c>
       <c r="Q128">
-        <v>37878</v>
+        <v>39554.30153987589</v>
       </c>
       <c r="R128">
-        <v>0.62</v>
+        <v>0.6669199084668194</v>
       </c>
       <c r="S128">
-        <v>24.8</v>
+        <v>25.24337528604121</v>
       </c>
       <c r="T128">
-        <v>60.2</v>
+        <v>59.40319502074691</v>
       </c>
       <c r="U128">
         <v>3.3</v>
@@ -18821,16 +18821,16 @@
         <v>88.21680000000001</v>
       </c>
       <c r="Q129">
-        <v>40856</v>
+        <v>49523.19627671799</v>
       </c>
       <c r="R129">
-        <v>0.68</v>
+        <v>0.6295514874141879</v>
       </c>
       <c r="S129">
-        <v>25.4</v>
+        <v>25.47863844393594</v>
       </c>
       <c r="T129">
-        <v>59.8</v>
+        <v>59.57319502074691</v>
       </c>
       <c r="U129">
         <v>3.2</v>
@@ -18964,16 +18964,16 @@
         <v>90.91930000000001</v>
       </c>
       <c r="Q130">
-        <v>44251</v>
+        <v>48363.66996092852</v>
       </c>
       <c r="R130">
-        <v>0.67</v>
+        <v>0.6500778032036616</v>
       </c>
       <c r="S130">
-        <v>25.8</v>
+        <v>24.61179633867278</v>
       </c>
       <c r="T130">
-        <v>59.3</v>
+        <v>58.79319502074691</v>
       </c>
       <c r="U130">
         <v>3.3</v>
@@ -19122,16 +19122,16 @@
         <v>93.24469999999999</v>
       </c>
       <c r="Q131">
-        <v>60027</v>
+        <v>61403.03838198115</v>
       </c>
       <c r="R131">
-        <v>0.6</v>
+        <v>0.5637620137299771</v>
       </c>
       <c r="S131">
-        <v>26.2</v>
+        <v>26.56442791762014</v>
       </c>
       <c r="T131">
-        <v>60.1</v>
+        <v>59.4081950207469</v>
       </c>
       <c r="U131">
         <v>3.2</v>
@@ -19265,16 +19265,16 @@
         <v>87.0121</v>
       </c>
       <c r="Q132">
-        <v>42229</v>
+        <v>42836.66996092853</v>
       </c>
       <c r="R132">
-        <v>0.62</v>
+        <v>0.6063935926773458</v>
       </c>
       <c r="S132">
-        <v>29.1</v>
+        <v>26.30969107551489</v>
       </c>
       <c r="T132">
-        <v>59.9</v>
+        <v>59.30319502074691</v>
       </c>
       <c r="U132">
         <v>3.3</v>
@@ -19408,16 +19408,16 @@
         <v>96.1536</v>
       </c>
       <c r="Q133">
-        <v>148086</v>
+        <v>79823.3541714548</v>
       </c>
       <c r="R133">
-        <v>0.65</v>
+        <v>0.6911304347826088</v>
       </c>
       <c r="S133">
-        <v>21.5</v>
+        <v>24.83916475972542</v>
       </c>
       <c r="T133">
-        <v>58.7</v>
+        <v>59.29819502074692</v>
       </c>
       <c r="U133">
         <v>3.2</v>
@@ -19566,16 +19566,16 @@
         <v>84.4097</v>
       </c>
       <c r="Q134">
-        <v>29411</v>
+        <v>46579.44890829694</v>
       </c>
       <c r="R134">
-        <v>0.5600000000000001</v>
+        <v>0.6841304347826087</v>
       </c>
       <c r="S134">
-        <v>18.8</v>
+        <v>25.86521739130436</v>
       </c>
       <c r="T134">
-        <v>57.7</v>
+        <v>59.34748073503263</v>
       </c>
       <c r="U134">
         <v>3.3</v>
@@ -19709,16 +19709,16 @@
         <v>86.16679999999999</v>
       </c>
       <c r="Q135">
-        <v>32092</v>
+        <v>46907.93311882326</v>
       </c>
       <c r="R135">
-        <v>0.72</v>
+        <v>0.7241304347826087</v>
       </c>
       <c r="S135">
-        <v>25.5</v>
+        <v>27.12521739130436</v>
       </c>
       <c r="T135">
-        <v>57.7</v>
+        <v>59.36319502074691</v>
       </c>
       <c r="U135">
         <v>3.4</v>
@@ -19852,16 +19852,16 @@
         <v>87.95869999999999</v>
       </c>
       <c r="Q136">
-        <v>38167</v>
+        <v>45994.51206619167</v>
       </c>
       <c r="R136">
-        <v>0.6899999999999999</v>
+        <v>0.677446224256293</v>
       </c>
       <c r="S136">
-        <v>33.3</v>
+        <v>30.60758581235699</v>
       </c>
       <c r="T136">
-        <v>58.9</v>
+        <v>59.62319502074691</v>
       </c>
       <c r="U136">
         <v>3.3</v>
@@ -20010,16 +20010,16 @@
         <v>84.7903</v>
       </c>
       <c r="Q137">
-        <v>42175</v>
+        <v>50905.40680303379</v>
       </c>
       <c r="R137">
-        <v>0.71</v>
+        <v>0.6906041189931351</v>
       </c>
       <c r="S137">
-        <v>30.8</v>
+        <v>27.347585812357</v>
       </c>
       <c r="T137">
-        <v>60</v>
+        <v>59.76819502074692</v>
       </c>
       <c r="U137">
         <v>3.3</v>
@@ -20153,16 +20153,16 @@
         <v>86.9092</v>
       </c>
       <c r="Q138">
-        <v>46086</v>
+        <v>52402.24890829695</v>
       </c>
       <c r="R138">
-        <v>0.78</v>
+        <v>0.7321830663615563</v>
       </c>
       <c r="S138">
-        <v>30.2</v>
+        <v>27.66969107551489</v>
       </c>
       <c r="T138">
-        <v>60.8</v>
+        <v>60.01319502074691</v>
       </c>
       <c r="U138">
         <v>3.2</v>
@@ -20296,16 +20296,16 @@
         <v>84.2557</v>
       </c>
       <c r="Q139">
-        <v>50534</v>
+        <v>46594.61732934956</v>
       </c>
       <c r="R139">
-        <v>0.73</v>
+        <v>0.7069199084668195</v>
       </c>
       <c r="S139">
-        <v>29.8</v>
+        <v>29.08021739130437</v>
       </c>
       <c r="T139">
-        <v>60.7</v>
+        <v>59.82319502074691</v>
       </c>
       <c r="U139">
         <v>3.2</v>
@@ -20454,16 +20454,16 @@
         <v>88.7317</v>
       </c>
       <c r="Q140">
-        <v>43682</v>
+        <v>45358.30153987589</v>
       </c>
       <c r="R140">
-        <v>0.7</v>
+        <v>0.7469199084668193</v>
       </c>
       <c r="S140">
-        <v>30.9</v>
+        <v>31.3433752860412</v>
       </c>
       <c r="T140">
-        <v>60.6</v>
+        <v>59.80319502074691</v>
       </c>
       <c r="U140">
         <v>3.1</v>
@@ -20597,16 +20597,16 @@
         <v>83.4817</v>
       </c>
       <c r="Q141">
-        <v>39030</v>
+        <v>47697.19627671799</v>
       </c>
       <c r="R141">
-        <v>0.78</v>
+        <v>0.7295514874141878</v>
       </c>
       <c r="S141">
-        <v>30.5</v>
+        <v>30.57863844393594</v>
       </c>
       <c r="T141">
-        <v>59.9</v>
+        <v>59.67319502074691</v>
       </c>
       <c r="U141">
         <v>3.1</v>
@@ -20740,16 +20740,16 @@
         <v>87.9379</v>
       </c>
       <c r="Q142">
-        <v>52216</v>
+        <v>56328.66996092852</v>
       </c>
       <c r="R142">
-        <v>0.7</v>
+        <v>0.6800778032036615</v>
       </c>
       <c r="S142">
-        <v>32</v>
+        <v>30.81179633867278</v>
       </c>
       <c r="T142">
-        <v>60.2</v>
+        <v>59.69319502074691</v>
       </c>
       <c r="U142">
         <v>3.2</v>
@@ -20898,16 +20898,16 @@
         <v>87.744</v>
       </c>
       <c r="Q143">
-        <v>36908</v>
+        <v>38284.03838198115</v>
       </c>
       <c r="R143">
-        <v>0.79</v>
+        <v>0.7537620137299772</v>
       </c>
       <c r="S143">
-        <v>29.1</v>
+        <v>29.46442791762015</v>
       </c>
       <c r="T143">
-        <v>60.3</v>
+        <v>59.6081950207469</v>
       </c>
       <c r="U143">
         <v>3.1</v>
@@ -21041,16 +21041,16 @@
         <v>89.9079</v>
       </c>
       <c r="Q144">
-        <v>37845</v>
+        <v>38452.66996092853</v>
       </c>
       <c r="R144">
-        <v>0.75</v>
+        <v>0.7363935926773458</v>
       </c>
       <c r="S144">
-        <v>34.7</v>
+        <v>31.90969107551489</v>
       </c>
       <c r="T144">
-        <v>59.9</v>
+        <v>59.30319502074691</v>
       </c>
       <c r="U144">
         <v>3.2</v>
@@ -21184,16 +21184,16 @@
         <v>91.6044</v>
       </c>
       <c r="Q145">
-        <v>138738</v>
+        <v>70475.3541714548</v>
       </c>
       <c r="R145">
-        <v>0.59</v>
+        <v>0.6311304347826088</v>
       </c>
       <c r="S145">
-        <v>24.5</v>
+        <v>27.83916475972542</v>
       </c>
       <c r="T145">
-        <v>58.6</v>
+        <v>59.19819502074692</v>
       </c>
       <c r="U145">
         <v>3.1</v>
@@ -21342,16 +21342,16 @@
         <v>88.1512</v>
       </c>
       <c r="Q146">
-        <v>23952</v>
+        <v>41120.44890829694</v>
       </c>
       <c r="R146">
-        <v>0.55</v>
+        <v>0.6741304347826087</v>
       </c>
       <c r="S146">
-        <v>20.6</v>
+        <v>27.66521739130436</v>
       </c>
       <c r="T146">
-        <v>57.7</v>
+        <v>59.34748073503263</v>
       </c>
       <c r="U146">
         <v>3.2</v>
@@ -21485,16 +21485,16 @@
         <v>92.3206</v>
       </c>
       <c r="Q147">
-        <v>21591</v>
+        <v>36406.93311882326</v>
       </c>
       <c r="R147">
-        <v>0.64</v>
+        <v>0.6441304347826088</v>
       </c>
       <c r="S147">
-        <v>29.9</v>
+        <v>31.52521739130436</v>
       </c>
       <c r="T147">
-        <v>57.5</v>
+        <v>59.16319502074691</v>
       </c>
       <c r="U147">
         <v>3.2</v>
@@ -21628,16 +21628,16 @@
         <v>91.4393</v>
       </c>
       <c r="Q148">
-        <v>30051</v>
+        <v>37878.51206619167</v>
       </c>
       <c r="R148">
-        <v>0.65</v>
+        <v>0.637446224256293</v>
       </c>
       <c r="S148">
-        <v>34.3</v>
+        <v>31.60758581235699</v>
       </c>
       <c r="T148">
-        <v>58.7</v>
+        <v>59.42319502074691</v>
       </c>
       <c r="U148">
         <v>3</v>
@@ -21786,16 +21786,16 @@
         <v>98.09399999999999</v>
       </c>
       <c r="Q149">
-        <v>30915</v>
+        <v>39645.40680303379</v>
       </c>
       <c r="R149">
-        <v>0.61</v>
+        <v>0.5906041189931351</v>
       </c>
       <c r="S149">
-        <v>33.7</v>
+        <v>30.247585812357</v>
       </c>
       <c r="T149">
-        <v>60</v>
+        <v>59.76819502074692</v>
       </c>
       <c r="U149">
         <v>3</v>
@@ -21929,16 +21929,16 @@
         <v>96.541</v>
       </c>
       <c r="Q150">
-        <v>35546</v>
+        <v>41862.24890829695</v>
       </c>
       <c r="R150">
-        <v>0.67</v>
+        <v>0.6221830663615563</v>
       </c>
       <c r="S150">
-        <v>32.7</v>
+        <v>30.16969107551489</v>
       </c>
       <c r="T150">
-        <v>60.6</v>
+        <v>59.81319502074691</v>
       </c>
       <c r="U150">
         <v>3.1</v>
@@ -22072,16 +22072,16 @@
         <v>97.3806</v>
       </c>
       <c r="Q151">
-        <v>38208</v>
+        <v>34268.61732934956</v>
       </c>
       <c r="R151">
-        <v>0.6899999999999999</v>
+        <v>0.6669199084668195</v>
       </c>
       <c r="S151">
-        <v>30.1</v>
+        <v>29.38021739130437</v>
       </c>
       <c r="T151">
-        <v>60.8</v>
+        <v>59.9231950207469</v>
       </c>
       <c r="U151">
         <v>3.1</v>
@@ -22230,16 +22230,16 @@
         <v>97.2732</v>
       </c>
       <c r="Q152">
-        <v>36255</v>
+        <v>37931.30153987589</v>
       </c>
       <c r="R152">
-        <v>0.52</v>
+        <v>0.5669199084668194</v>
       </c>
       <c r="S152">
-        <v>28.6</v>
+        <v>29.04337528604121</v>
       </c>
       <c r="T152">
-        <v>60.7</v>
+        <v>59.90319502074691</v>
       </c>
       <c r="U152">
         <v>3.2</v>
@@ -22373,16 +22373,16 @@
         <v>95.9907</v>
       </c>
       <c r="Q153">
-        <v>31979</v>
+        <v>40646.19627671799</v>
       </c>
       <c r="R153">
-        <v>0.65</v>
+        <v>0.5995514874141878</v>
       </c>
       <c r="S153">
-        <v>29.9</v>
+        <v>29.97863844393594</v>
       </c>
       <c r="T153">
-        <v>60.2</v>
+        <v>59.97319502074691</v>
       </c>
       <c r="U153">
         <v>3.2</v>
@@ -22516,16 +22516,16 @@
         <v>97.7833</v>
       </c>
       <c r="Q154">
-        <v>33869</v>
+        <v>37981.66996092852</v>
       </c>
       <c r="R154">
-        <v>0.64</v>
+        <v>0.6200778032036616</v>
       </c>
       <c r="S154">
-        <v>29.9</v>
+        <v>28.71179633867278</v>
       </c>
       <c r="T154">
-        <v>60.6</v>
+        <v>60.09319502074691</v>
       </c>
       <c r="U154">
         <v>3</v>
@@ -22674,16 +22674,16 @@
         <v>99.80159999999999</v>
       </c>
       <c r="Q155">
-        <v>33348</v>
+        <v>34724.03838198115</v>
       </c>
       <c r="R155">
-        <v>0.6</v>
+        <v>0.5637620137299771</v>
       </c>
       <c r="S155">
-        <v>29</v>
+        <v>29.36442791762014</v>
       </c>
       <c r="T155">
-        <v>60.8</v>
+        <v>60.1081950207469</v>
       </c>
       <c r="U155">
         <v>3.1</v>
@@ -22817,16 +22817,16 @@
         <v>101.0624</v>
       </c>
       <c r="Q156">
-        <v>40257</v>
+        <v>40864.66996092853</v>
       </c>
       <c r="R156">
-        <v>0.65</v>
+        <v>0.6363935926773459</v>
       </c>
       <c r="S156">
-        <v>34.4</v>
+        <v>31.60969107551489</v>
       </c>
       <c r="T156">
-        <v>60.7</v>
+        <v>60.10319502074692</v>
       </c>
       <c r="U156">
         <v>3.1</v>
@@ -22960,16 +22960,16 @@
         <v>95.1463</v>
       </c>
       <c r="Q157">
-        <v>84145</v>
+        <v>15882.3541714548</v>
       </c>
       <c r="R157">
-        <v>0.53</v>
+        <v>0.5711304347826088</v>
       </c>
       <c r="S157">
-        <v>25</v>
+        <v>28.33916475972542</v>
       </c>
       <c r="T157">
-        <v>59.4</v>
+        <v>59.99819502074691</v>
       </c>
       <c r="U157">
         <v>3.2</v>
@@ -23118,16 +23118,16 @@
         <v>100.7586</v>
       </c>
       <c r="Q158">
-        <v>24602</v>
+        <v>41770.44890829694</v>
       </c>
       <c r="R158">
-        <v>0.46</v>
+        <v>0.5841304347826086</v>
       </c>
       <c r="S158">
-        <v>20.6</v>
+        <v>27.66521739130436</v>
       </c>
       <c r="T158">
-        <v>58.8</v>
+        <v>60.44748073503263</v>
       </c>
       <c r="U158">
         <v>3.3</v>
@@ -23261,16 +23261,16 @@
         <v>95.6876</v>
       </c>
       <c r="Q159">
-        <v>29707</v>
+        <v>44522.93311882326</v>
       </c>
       <c r="R159">
-        <v>0.61</v>
+        <v>0.6141304347826088</v>
       </c>
       <c r="S159">
-        <v>29.2</v>
+        <v>30.82521739130436</v>
       </c>
       <c r="T159">
-        <v>58.9</v>
+        <v>60.56319502074691</v>
       </c>
       <c r="U159">
         <v>3.6</v>
@@ -23404,16 +23404,16 @@
         <v>93.11060000000001</v>
       </c>
       <c r="Q160">
-        <v>38969</v>
+        <v>46796.51206619167</v>
       </c>
       <c r="R160">
-        <v>0.5600000000000001</v>
+        <v>0.5474462242562931</v>
       </c>
       <c r="S160">
-        <v>37.1</v>
+        <v>34.407585812357</v>
       </c>
       <c r="T160">
-        <v>59.7</v>
+        <v>60.42319502074691</v>
       </c>
       <c r="U160">
         <v>3.4</v>
@@ -23562,16 +23562,16 @@
         <v>100.4442</v>
       </c>
       <c r="Q161">
-        <v>42706</v>
+        <v>51436.40680303379</v>
       </c>
       <c r="R161">
-        <v>0.6899999999999999</v>
+        <v>0.6706041189931351</v>
       </c>
       <c r="S161">
-        <v>34.5</v>
+        <v>31.047585812357</v>
       </c>
       <c r="T161">
-        <v>60.9</v>
+        <v>60.66819502074691</v>
       </c>
       <c r="U161">
         <v>3.6</v>
@@ -23705,16 +23705,16 @@
         <v>96.5797</v>
       </c>
       <c r="Q162">
-        <v>41552</v>
+        <v>47868.24890829695</v>
       </c>
       <c r="R162">
-        <v>0.58</v>
+        <v>0.5321830663615562</v>
       </c>
       <c r="S162">
-        <v>32.1</v>
+        <v>29.56969107551489</v>
       </c>
       <c r="T162">
-        <v>61.1</v>
+        <v>60.31319502074691</v>
       </c>
       <c r="U162">
         <v>3.5</v>
@@ -23848,16 +23848,16 @@
         <v>97.34099999999999</v>
       </c>
       <c r="Q163">
-        <v>42427</v>
+        <v>38487.61732934956</v>
       </c>
       <c r="R163">
-        <v>0.5600000000000001</v>
+        <v>0.5369199084668196</v>
       </c>
       <c r="S163">
-        <v>29.7</v>
+        <v>28.98021739130437</v>
       </c>
       <c r="T163">
-        <v>61.2</v>
+        <v>60.32319502074691</v>
       </c>
       <c r="U163">
         <v>3.5</v>
@@ -24006,16 +24006,16 @@
         <v>95.80240000000001</v>
       </c>
       <c r="Q164">
-        <v>44572</v>
+        <v>46248.30153987589</v>
       </c>
       <c r="R164">
-        <v>0.51</v>
+        <v>0.5569199084668194</v>
       </c>
       <c r="S164">
-        <v>28.6</v>
+        <v>29.04337528604121</v>
       </c>
       <c r="T164">
-        <v>61.4</v>
+        <v>60.60319502074691</v>
       </c>
       <c r="U164">
         <v>3.5</v>
@@ -24149,16 +24149,16 @@
         <v>95.7838</v>
       </c>
       <c r="Q165">
-        <v>49067</v>
+        <v>57734.19627671799</v>
       </c>
       <c r="R165">
-        <v>0.63</v>
+        <v>0.5795514874141878</v>
       </c>
       <c r="S165">
-        <v>30.5</v>
+        <v>30.57863844393594</v>
       </c>
       <c r="T165">
-        <v>61.1</v>
+        <v>60.87319502074691</v>
       </c>
       <c r="U165">
         <v>3.5</v>
@@ -24292,16 +24292,16 @@
         <v>92.869</v>
       </c>
       <c r="Q166">
-        <v>37726</v>
+        <v>41838.66996092852</v>
       </c>
       <c r="R166">
-        <v>0.61</v>
+        <v>0.5900778032036615</v>
       </c>
       <c r="S166">
-        <v>29.6</v>
+        <v>28.41179633867278</v>
       </c>
       <c r="T166">
-        <v>61.1</v>
+        <v>60.59319502074691</v>
       </c>
       <c r="U166">
         <v>3.5</v>
@@ -24450,16 +24450,16 @@
         <v>94.625</v>
       </c>
       <c r="Q167">
-        <v>45475</v>
+        <v>46851.03838198115</v>
       </c>
       <c r="R167">
-        <v>0.58</v>
+        <v>0.5437620137299771</v>
       </c>
       <c r="S167">
-        <v>30.8</v>
+        <v>31.16442791762015</v>
       </c>
       <c r="T167">
-        <v>61.1</v>
+        <v>60.4081950207469</v>
       </c>
       <c r="U167">
         <v>3.6</v>
@@ -24593,16 +24593,16 @@
         <v>93.4504</v>
       </c>
       <c r="Q168">
-        <v>49181</v>
+        <v>49788.66996092853</v>
       </c>
       <c r="R168">
-        <v>0.57</v>
+        <v>0.5563935926773458</v>
       </c>
       <c r="S168">
-        <v>28.5</v>
+        <v>25.70969107551489</v>
       </c>
       <c r="T168">
-        <v>61.1</v>
+        <v>60.50319502074692</v>
       </c>
       <c r="U168">
         <v>3.5</v>
@@ -24736,16 +24736,16 @@
         <v>92.5287</v>
       </c>
       <c r="Q169">
-        <v>69267</v>
+        <v>1004.354171454805</v>
       </c>
       <c r="R169">
-        <v>0.63</v>
+        <v>0.6711304347826088</v>
       </c>
       <c r="S169">
-        <v>26</v>
+        <v>29.33916475972542</v>
       </c>
       <c r="T169">
-        <v>59.7</v>
+        <v>60.29819502074692</v>
       </c>
       <c r="U169">
         <v>3.7</v>
@@ -24894,16 +24894,16 @@
         <v>96.9781</v>
       </c>
       <c r="Q170">
-        <v>33271</v>
+        <v>50439.44890829694</v>
       </c>
       <c r="R170">
-        <v>0.42</v>
+        <v>0.5441304347826086</v>
       </c>
       <c r="S170">
-        <v>23.7</v>
+        <v>30.76521739130436</v>
       </c>
       <c r="T170">
-        <v>59</v>
+        <v>60.64748073503263</v>
       </c>
       <c r="U170">
         <v>3.6</v>
@@ -25037,16 +25037,16 @@
         <v>100.9164</v>
       </c>
       <c r="Q171">
-        <v>33301</v>
+        <v>48116.93311882326</v>
       </c>
       <c r="R171">
-        <v>0.49</v>
+        <v>0.4941304347826088</v>
       </c>
       <c r="S171">
-        <v>29</v>
+        <v>30.62521739130436</v>
       </c>
       <c r="T171">
-        <v>59.1</v>
+        <v>60.76319502074691</v>
       </c>
       <c r="U171">
         <v>3.6</v>
@@ -25180,16 +25180,16 @@
         <v>92.0943</v>
       </c>
       <c r="Q172">
-        <v>52200</v>
+        <v>60027.51206619167</v>
       </c>
       <c r="R172">
-        <v>0.64</v>
+        <v>0.627446224256293</v>
       </c>
       <c r="S172">
-        <v>35</v>
+        <v>32.307585812357</v>
       </c>
       <c r="T172">
-        <v>59.8</v>
+        <v>60.5231950207469</v>
       </c>
       <c r="U172">
         <v>3.5</v>
@@ -25338,16 +25338,16 @@
         <v>94.5939</v>
       </c>
       <c r="Q173">
-        <v>51345</v>
+        <v>60075.40680303379</v>
       </c>
       <c r="R173">
-        <v>0.53</v>
+        <v>0.5106041189931352</v>
       </c>
       <c r="S173">
-        <v>34</v>
+        <v>30.547585812357</v>
       </c>
       <c r="T173">
-        <v>60.6</v>
+        <v>60.36819502074692</v>
       </c>
       <c r="U173">
         <v>3.6</v>
@@ -25481,16 +25481,16 @@
         <v>96.1464</v>
       </c>
       <c r="Q174">
-        <v>56861</v>
+        <v>63177.24890829695</v>
       </c>
       <c r="R174">
-        <v>0.5600000000000001</v>
+        <v>0.5121830663615563</v>
       </c>
       <c r="S174">
-        <v>31.9</v>
+        <v>29.36969107551489</v>
       </c>
       <c r="T174">
-        <v>61.2</v>
+        <v>60.41319502074691</v>
       </c>
       <c r="U174">
         <v>3.7</v>
@@ -25624,16 +25624,16 @@
         <v>98.4328</v>
       </c>
       <c r="Q175">
-        <v>73102</v>
+        <v>69162.61732934957</v>
       </c>
       <c r="R175">
-        <v>0.61</v>
+        <v>0.5869199084668195</v>
       </c>
       <c r="S175">
-        <v>31.8</v>
+        <v>31.08021739130437</v>
       </c>
       <c r="T175">
-        <v>61.2</v>
+        <v>60.32319502074691</v>
       </c>
       <c r="U175">
         <v>3.8</v>
@@ -25782,16 +25782,16 @@
         <v>98.4072</v>
       </c>
       <c r="Q176">
-        <v>82836</v>
+        <v>84512.30153987589</v>
       </c>
       <c r="R176">
-        <v>0.45</v>
+        <v>0.4969199084668194</v>
       </c>
       <c r="S176">
-        <v>27.1</v>
+        <v>27.54337528604121</v>
       </c>
       <c r="T176">
-        <v>61.3</v>
+        <v>60.50319502074691</v>
       </c>
       <c r="U176">
         <v>3.7</v>
@@ -25925,16 +25925,16 @@
         <v>102.3191</v>
       </c>
       <c r="Q177">
-        <v>69269</v>
+        <v>77936.19627671799</v>
       </c>
       <c r="R177">
-        <v>0.62</v>
+        <v>0.5695514874141878</v>
       </c>
       <c r="S177">
-        <v>30.4</v>
+        <v>30.47863844393594</v>
       </c>
       <c r="T177">
-        <v>60.9</v>
+        <v>60.67319502074691</v>
       </c>
       <c r="U177">
         <v>3.6</v>
@@ -26068,16 +26068,16 @@
         <v>108.1543</v>
       </c>
       <c r="Q178">
-        <v>87955</v>
+        <v>92067.66996092853</v>
       </c>
       <c r="R178">
-        <v>0.6</v>
+        <v>0.5800778032036615</v>
       </c>
       <c r="S178">
-        <v>31.5</v>
+        <v>30.31179633867278</v>
       </c>
       <c r="T178">
-        <v>61.1</v>
+        <v>60.59319502074691</v>
       </c>
       <c r="U178">
         <v>3.5</v>
@@ -26226,16 +26226,16 @@
         <v>102.4128</v>
       </c>
       <c r="Q179">
-        <v>64200</v>
+        <v>65576.03838198114</v>
       </c>
       <c r="R179">
-        <v>0.59</v>
+        <v>0.5537620137299771</v>
       </c>
       <c r="S179">
-        <v>28.8</v>
+        <v>29.16442791762015</v>
       </c>
       <c r="T179">
-        <v>61.2</v>
+        <v>60.5081950207469</v>
       </c>
       <c r="U179">
         <v>3.5</v>
@@ -26369,16 +26369,16 @@
         <v>101.1885</v>
       </c>
       <c r="Q180">
-        <v>62823</v>
+        <v>63430.66996092853</v>
       </c>
       <c r="R180">
-        <v>0.61</v>
+        <v>0.5963935926773458</v>
       </c>
       <c r="S180">
-        <v>32.5</v>
+        <v>29.70969107551489</v>
       </c>
       <c r="T180">
-        <v>61</v>
+        <v>60.40319502074691</v>
       </c>
       <c r="U180">
         <v>3.6</v>
@@ -26512,16 +26512,16 @@
         <v>108.3562</v>
       </c>
       <c r="Q181">
-        <v>98165</v>
+        <v>29902.3541714548</v>
       </c>
       <c r="R181">
-        <v>0.62</v>
+        <v>0.6611304347826088</v>
       </c>
       <c r="S181">
-        <v>25.6</v>
+        <v>28.93916475972542</v>
       </c>
       <c r="T181">
-        <v>60.1</v>
+        <v>60.69819502074692</v>
       </c>
       <c r="U181">
         <v>3.5</v>
@@ -26670,16 +26670,16 @@
         <v>104.0261</v>
       </c>
       <c r="Q182">
-        <v>47536</v>
+        <v>64704.44890829694</v>
       </c>
       <c r="R182">
-        <v>0.43</v>
+        <v>0.5541304347826086</v>
       </c>
       <c r="S182">
-        <v>22.1</v>
+        <v>29.16521739130436</v>
       </c>
       <c r="T182">
-        <v>59</v>
+        <v>60.64748073503263</v>
       </c>
       <c r="U182">
         <v>3.6</v>
@@ -26813,16 +26813,16 @@
         <v>107.2705</v>
       </c>
       <c r="Q183">
-        <v>53723</v>
+        <v>68538.93311882326</v>
       </c>
       <c r="R183">
-        <v>0.57</v>
+        <v>0.5741304347826087</v>
       </c>
       <c r="S183">
-        <v>28.6</v>
+        <v>30.22521739130436</v>
       </c>
       <c r="T183">
-        <v>58.9</v>
+        <v>60.56319502074691</v>
       </c>
       <c r="U183">
         <v>3.9</v>
@@ -26956,16 +26956,16 @@
         <v>110.1239</v>
       </c>
       <c r="Q184">
-        <v>61750</v>
+        <v>69577.51206619167</v>
       </c>
       <c r="R184">
-        <v>0.62</v>
+        <v>0.607446224256293</v>
       </c>
       <c r="S184">
-        <v>32.7</v>
+        <v>30.007585812357</v>
       </c>
       <c r="T184">
-        <v>59.7</v>
+        <v>60.42319502074691</v>
       </c>
       <c r="U184">
         <v>3.7</v>
@@ -27114,16 +27114,16 @@
         <v>108.1618</v>
       </c>
       <c r="Q185">
-        <v>59675</v>
+        <v>68405.40680303378</v>
       </c>
       <c r="R185">
-        <v>0.58</v>
+        <v>0.5606041189931351</v>
       </c>
       <c r="S185">
-        <v>33.6</v>
+        <v>30.147585812357</v>
       </c>
       <c r="T185">
-        <v>60.5</v>
+        <v>60.26819502074692</v>
       </c>
       <c r="U185">
         <v>3.6</v>
@@ -27257,16 +27257,16 @@
         <v>111.6833</v>
       </c>
       <c r="Q186">
-        <v>52713</v>
+        <v>59029.24890829695</v>
       </c>
       <c r="R186">
-        <v>0.63</v>
+        <v>0.5821830663615563</v>
       </c>
       <c r="S186">
-        <v>32.6</v>
+        <v>30.06969107551489</v>
       </c>
       <c r="T186">
-        <v>61.1</v>
+        <v>60.31319502074691</v>
       </c>
       <c r="U186">
         <v>3.6</v>
@@ -27400,16 +27400,16 @@
         <v>116.4617</v>
       </c>
       <c r="Q187">
-        <v>79912</v>
+        <v>75972.61732934957</v>
       </c>
       <c r="R187">
-        <v>0.66</v>
+        <v>0.6369199084668196</v>
       </c>
       <c r="S187">
-        <v>29.8</v>
+        <v>29.08021739130437</v>
       </c>
       <c r="T187">
-        <v>61.3</v>
+        <v>60.4231950207469</v>
       </c>
       <c r="U187">
         <v>3.6</v>
@@ -27558,16 +27558,16 @@
         <v>115.6337</v>
       </c>
       <c r="Q188">
-        <v>61387</v>
+        <v>63063.30153987589</v>
       </c>
       <c r="R188">
-        <v>0.54</v>
+        <v>0.5869199084668194</v>
       </c>
       <c r="S188">
-        <v>28.9</v>
+        <v>29.3433752860412</v>
       </c>
       <c r="T188">
-        <v>61.3</v>
+        <v>60.50319502074691</v>
       </c>
       <c r="U188">
         <v>3.6</v>
@@ -27701,16 +27701,16 @@
         <v>118.8929</v>
       </c>
       <c r="Q189">
-        <v>54832</v>
+        <v>63499.19627671799</v>
       </c>
       <c r="R189">
-        <v>0.7</v>
+        <v>0.6495514874141878</v>
       </c>
       <c r="S189">
-        <v>29.2</v>
+        <v>29.27863844393594</v>
       </c>
       <c r="T189">
-        <v>61.2</v>
+        <v>60.97319502074691</v>
       </c>
       <c r="U189">
         <v>3.8</v>
@@ -27844,16 +27844,16 @@
         <v>119.6329</v>
       </c>
       <c r="Q190">
-        <v>48024</v>
+        <v>52136.66996092852</v>
       </c>
       <c r="R190">
-        <v>0.73</v>
+        <v>0.7100778032036615</v>
       </c>
       <c r="S190">
-        <v>30.4</v>
+        <v>29.21179633867278</v>
       </c>
       <c r="T190">
-        <v>61.1</v>
+        <v>60.59319502074691</v>
       </c>
       <c r="U190">
         <v>3.9</v>
@@ -28002,16 +28002,16 @@
         <v>120.7302</v>
       </c>
       <c r="Q191">
-        <v>52438</v>
+        <v>53814.03838198115</v>
       </c>
       <c r="R191">
-        <v>0.71</v>
+        <v>0.6737620137299771</v>
       </c>
       <c r="S191">
-        <v>31.5</v>
+        <v>31.86442791762014</v>
       </c>
       <c r="T191">
-        <v>61.2</v>
+        <v>60.5081950207469</v>
       </c>
       <c r="U191">
         <v>3.8</v>
@@ -28145,16 +28145,16 @@
         <v>127.2675</v>
       </c>
       <c r="Q192">
-        <v>64833</v>
+        <v>65440.66996092853</v>
       </c>
       <c r="R192">
-        <v>0.6899999999999999</v>
+        <v>0.6763935926773458</v>
       </c>
       <c r="S192">
-        <v>32.2</v>
+        <v>29.40969107551489</v>
       </c>
       <c r="T192">
-        <v>61.2</v>
+        <v>60.60319502074692</v>
       </c>
       <c r="U192">
         <v>3.7</v>
@@ -28288,16 +28288,16 @@
         <v>124.4592</v>
       </c>
       <c r="Q193">
-        <v>89225</v>
+        <v>20962.3541714548</v>
       </c>
       <c r="R193">
-        <v>0.8</v>
+        <v>0.8411304347826088</v>
       </c>
       <c r="S193">
-        <v>28.5</v>
+        <v>31.83916475972542</v>
       </c>
       <c r="T193">
-        <v>60.2</v>
+        <v>60.79819502074692</v>
       </c>
       <c r="U193">
         <v>3.5</v>
@@ -28446,16 +28446,16 @@
         <v>121.193</v>
       </c>
       <c r="Q194">
-        <v>39898</v>
+        <v>57066.44890829694</v>
       </c>
       <c r="R194">
-        <v>0.53</v>
+        <v>0.6541304347826087</v>
       </c>
       <c r="S194">
-        <v>22.9</v>
+        <v>29.96521739130436</v>
       </c>
       <c r="T194">
-        <v>59.1</v>
+        <v>60.74748073503263</v>
       </c>
       <c r="U194">
         <v>3.6</v>
@@ -28589,16 +28589,16 @@
         <v>127.7133</v>
       </c>
       <c r="Q195">
-        <v>49582</v>
+        <v>64397.93311882326</v>
       </c>
       <c r="R195">
-        <v>0.74</v>
+        <v>0.7441304347826088</v>
       </c>
       <c r="S195">
-        <v>30.9</v>
+        <v>32.52521739130435</v>
       </c>
       <c r="T195">
-        <v>59.3</v>
+        <v>60.96319502074691</v>
       </c>
       <c r="U195">
         <v>3.9</v>
@@ -28723,13 +28723,13 @@
         <v>78</v>
       </c>
       <c r="R196">
-        <v>0.76</v>
+        <v>0.747446224256293</v>
       </c>
       <c r="S196">
-        <v>34</v>
+        <v>31.307585812357</v>
       </c>
       <c r="T196">
-        <v>60.3</v>
+        <v>61.0231950207469</v>
       </c>
       <c r="U196">
         <v>3.6</v>
